--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>107</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,51 +637,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,93 +691,93 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,103 +787,103 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1187</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,93 +893,93 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1147</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1156</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,83 +1085,83 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1346,46 +1346,46 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,83 +1565,83 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>813</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,93 +1661,93 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-02 17:42</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224214316.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
+          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-02 17:17</t>
+          <t>09-02 17:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1224209876.html</t>
+          <t>/news,603876,1224212132.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-01 17:19</t>
+          <t>09-02 17:17</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1223792791.html</t>
+          <t>/news,603876,1224209876.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
+          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-01 14:59</t>
+          <t>09-01 17:19</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1223750894.html</t>
+          <t>/news,603876,1223792791.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
+          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>08-31 17:22</t>
+          <t>09-01 14:59</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1223341223.html</t>
+          <t>/news,603876,1223750894.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
+          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>08-30 20:27</t>
+          <t>08-31 17:22</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1222903536.html</t>
+          <t>/news,603876,1223341223.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,51 +2013,51 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-30 17:35</t>
+          <t>08-30 20:27</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1222855174.html</t>
+          <t>/news,603876,1222903536.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-25 13:07</t>
+          <t>08-30 17:35</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1221203378.html</t>
+          <t>/news,603876,1222855174.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-25 09:21</t>
+          <t>08-25 13:07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1220991912.html</t>
+          <t>/news,603876,1221203378.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
+          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,83 +2109,83 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-25 08:54</t>
+          <t>08-25 09:21</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1220984724.html</t>
+          <t>/news,603876,1220991912.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
+          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-24 20:15</t>
+          <t>08-25 08:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1220914870.html</t>
+          <t>/news,603876,1220984724.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
+          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-24 20:09</t>
+          <t>08-24 20:15</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1220913177.html</t>
+          <t>/news,603876,1220914870.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-24 17:50</t>
+          <t>08-24 20:09</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1220883804.html</t>
+          <t>/news,603876,1220913177.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,135 +2227,135 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材封跌停板 机构资金净买入1859万元</t>
+          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-24 17:47</t>
+          <t>08-24 17:50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1220882945.html</t>
+          <t>/news,603876,1220883804.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>971</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(08-24)</t>
+          <t>鼎胜新材封跌停板 机构资金净买入1859万元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-24 17:20</t>
+          <t>08-24 17:47</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1220884664.html</t>
+          <t>/news,603876,1220882945.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>971</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中泰证券维持鼎胜新材买入评级 预计2022年净利润同比增长187.64%</t>
+          <t>鼎胜新材(603876)龙虎榜数据(08-24)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-24 09:05</t>
+          <t>08-24 17:20</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1220489122.html</t>
+          <t>/news,603876,1220884664.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年净利润同比增长292.47% 电池铝箔龙头步入高速扩张期</t>
+          <t>中泰证券维持鼎胜新材买入评级 预计2022年净利润同比增长187.64%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-23 19:50</t>
+          <t>08-24 09:05</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1220410866.html</t>
+          <t>/news,603876,1220489122.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材上半年盈利大增292% 电池铝箔业务步入高速扩张期</t>
+          <t>鼎胜新材：上半年净利润同比增长292.47% 电池铝箔龙头步入高速扩张期</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-23 19:37</t>
+          <t>08-23 19:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1220409442.html</t>
+          <t>/news,603876,1220410866.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>广发证券维持鼎胜新材买入评级 目标价67.3元</t>
+          <t>鼎胜新材上半年盈利大增292% 电池铝箔业务步入高速扩张期</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-23 18:54</t>
+          <t>08-23 19:37</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1220399448.html</t>
+          <t>/news,603876,1220409442.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级 供需紧张 加速转产电池箔</t>
+          <t>广发证券维持鼎胜新材买入评级 目标价67.3元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-23 15:34</t>
+          <t>08-23 18:54</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1220355438.html</t>
+          <t>/news,603876,1220399448.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长188.57%</t>
+          <t>国金证券给予鼎胜新材买入评级 供需紧张 加速转产电池箔</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-23 15:21</t>
+          <t>08-23 15:34</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1220347424.html</t>
+          <t>/news,603876,1220355438.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>【图解中报】鼎胜新材：2022上半年归母净利润同比翻近3倍，约为6亿元</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长188.57%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-22 21:34</t>
+          <t>08-23 15:21</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1220220787.html</t>
+          <t>/news,603876,1220347424.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鼎胜新材上半年净利同比增长292.47%</t>
+          <t>【图解中报】鼎胜新材：2022上半年归母净利润同比翻近3倍，约为6亿元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-22 19:36</t>
+          <t>08-22 21:34</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1219956152.html</t>
+          <t>/news,603876,1220220787.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>764</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数下降5.11%，户均持股147.36万元</t>
+          <t>鼎胜新材上半年净利同比增长292.47%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-22 18:26</t>
+          <t>08-22 19:36</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1219942329.html</t>
+          <t>/news,603876,1219956152.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年净利润同比增长292%</t>
+          <t>鼎胜新材股东户数下降5.11%，户均持股147.36万元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-22 18:23</t>
+          <t>08-22 18:26</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1219944472.html</t>
+          <t>/news,603876,1219942329.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年半年度净利润约5.97亿元 同比增加292.47%</t>
+          <t>鼎胜新材：上半年净利润同比增长292%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-22 18:22</t>
+          <t>08-22 18:23</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1219944053.html</t>
+          <t>/news,603876,1219944472.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年归母净利润5.97亿元 同比上涨292.47%</t>
+          <t>鼎胜新材：2022年半年度净利润约5.97亿元 同比增加292.47%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-22 18:13</t>
+          <t>08-22 18:22</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1219943061.html</t>
+          <t>/news,603876,1219944053.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年实现净利润5.97亿元 同比增长292.47%</t>
+          <t>鼎胜新材：上半年归母净利润5.97亿元 同比上涨292.47%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-22 18:11</t>
+          <t>08-22 18:13</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1219940581.html</t>
+          <t>/news,603876,1219943061.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年净利同比增长292%</t>
+          <t>鼎胜新材：上半年实现净利润5.97亿元 同比增长292.47%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,93 +2717,93 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-22 18:09</t>
+          <t>08-22 18:11</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1219942550.html</t>
+          <t>/news,603876,1219940581.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022上半年净利润同比增长292.5%</t>
+          <t>鼎胜新材：上半年净利同比增长292%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-22 18:04</t>
+          <t>08-22 18:09</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1219938060.html</t>
+          <t>/news,603876,1219942550.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>610</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>龙头企业透露供不应求 铝箔量价齐升 钠电池将成新风口？</t>
+          <t>鼎胜新材：2022上半年净利润同比增长292.5%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-06 18:39</t>
+          <t>08-22 18:04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1214664462.html</t>
+          <t>/news,603876,1219938060.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>3403</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司80万吨项目包含20万吨电池箔成品及配套60万吨坯料</t>
+          <t>龙头企业透露供不应求 铝箔量价齐升 钠电池将成新风口？</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-05 11:55</t>
+          <t>08-06 18:39</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1214396282.html</t>
+          <t>/news,603876,1214664462.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>大宗交易：鼎胜新材成交256万元，成交价64.00元（08-04）</t>
+          <t>鼎胜新材：公司80万吨项目包含20万吨电池箔成品及配套60万吨坯料</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-04 17:12</t>
+          <t>08-05 11:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1214133162.html</t>
+          <t>/news,603876,1214396282.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>604</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级：电池铝箔龙头积极扩产 老树新花打造第二成长曲线</t>
+          <t>大宗交易：鼎胜新材成交256万元，成交价64.00元（08-04）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,93 +2877,93 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>07-28 08:25</t>
+          <t>08-04 17:12</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1211128842.html</t>
+          <t>/news,603876,1214133162.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>1031</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>浙商证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长156.48%</t>
+          <t>浙商证券给予鼎胜新材买入评级：电池铝箔龙头积极扩产 老树新花打造第二成长曲线</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>07-28 08:20</t>
+          <t>07-28 08:25</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1211127734.html</t>
+          <t>/news,603876,1211128842.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材盘中最高69.5元，股价连续两日创近一年新高</t>
+          <t>浙商证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长156.48%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>股友377Rx87309</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>07-26 15:47</t>
+          <t>07-28 08:20</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1210536668.html</t>
+          <t>/news,603876,1211127734.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材盘中最高68.96元，股价创近一年新高</t>
+          <t>鼎胜新材盘中最高69.5元，股价连续两日创近一年新高</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>07-25 15:44</t>
+          <t>07-26 15:47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1210076721.html</t>
+          <t>/news,603876,1210536668.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材等61股近五日获机构净买入</t>
+          <t>鼎胜新材盘中最高68.96元，股价创近一年新高</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>股友377Rx87309</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>07-25 10:58</t>
+          <t>07-25 15:44</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1209898504.html</t>
+          <t>/news,603876,1210076721.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>94</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,61 +509,61 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,189 +723,189 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1156</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,157 +1373,157 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,61 +1651,61 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>815</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,51 +1885,51 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-02 17:17</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1224209876.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-01 17:19</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1223792791.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-01 14:59</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1223750894.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>08-31 17:22</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1223341223.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-30 20:27</t>
+          <t>09-02 17:42</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1222903536.html</t>
+          <t>/news,603876,1224214316.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
+          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-30 17:35</t>
+          <t>09-02 17:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1222855174.html</t>
+          <t>/news,603876,1224212132.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,103 +2067,103 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-25 13:07</t>
+          <t>09-02 17:17</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1221203378.html</t>
+          <t>/news,603876,1224209876.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
+          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-25 09:21</t>
+          <t>09-01 17:19</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1220991912.html</t>
+          <t>/news,603876,1223792791.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
+          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-25 08:54</t>
+          <t>09-01 14:59</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1220984724.html</t>
+          <t>/news,603876,1223750894.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
+          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-24 20:15</t>
+          <t>08-31 17:22</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1220914870.html</t>
+          <t>/news,603876,1223341223.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-24 20:09</t>
+          <t>08-30 20:27</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1220913177.html</t>
+          <t>/news,603876,1222903536.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
+          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-24 17:50</t>
+          <t>08-30 17:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1220883804.html</t>
+          <t>/news,603876,1222855174.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,61 +2259,61 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材封跌停板 机构资金净买入1859万元</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-24 17:47</t>
+          <t>08-25 13:07</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1220882945.html</t>
+          <t>/news,603876,1221203378.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>971</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(08-24)</t>
+          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-24 17:20</t>
+          <t>08-25 09:21</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1220884664.html</t>
+          <t>/news,603876,1220991912.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中泰证券维持鼎胜新材买入评级 预计2022年净利润同比增长187.64%</t>
+          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-24 09:05</t>
+          <t>08-25 08:54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1220489122.html</t>
+          <t>/news,603876,1220984724.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年净利润同比增长292.47% 电池铝箔龙头步入高速扩张期</t>
+          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-23 19:50</t>
+          <t>08-24 20:15</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1220410866.html</t>
+          <t>/news,603876,1220914870.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>鼎胜新材上半年盈利大增292% 电池铝箔业务步入高速扩张期</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-23 19:37</t>
+          <t>08-24 20:09</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1220409442.html</t>
+          <t>/news,603876,1220913177.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>广发证券维持鼎胜新材买入评级 目标价67.3元</t>
+          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-23 18:54</t>
+          <t>08-24 17:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1220399448.html</t>
+          <t>/news,603876,1220883804.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,61 +2451,61 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级 供需紧张 加速转产电池箔</t>
+          <t>鼎胜新材封跌停板 机构资金净买入1859万元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-23 15:34</t>
+          <t>08-24 17:47</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1220355438.html</t>
+          <t>/news,603876,1220882945.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>973</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长188.57%</t>
+          <t>鼎胜新材(603876)龙虎榜数据(08-24)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-23 15:21</t>
+          <t>08-24 17:20</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1220347424.html</t>
+          <t>/news,603876,1220884664.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,39 +2515,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>【图解中报】鼎胜新材：2022上半年归母净利润同比翻近3倍，约为6亿元</t>
+          <t>中泰证券维持鼎胜新材买入评级 预计2022年净利润同比增长187.64%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-22 21:34</t>
+          <t>08-24 09:05</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1220220787.html</t>
+          <t>/news,603876,1220489122.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>鼎胜新材上半年净利同比增长292.47%</t>
+          <t>鼎胜新材：上半年净利润同比增长292.47% 电池铝箔龙头步入高速扩张期</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-22 19:36</t>
+          <t>08-23 19:50</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1219956152.html</t>
+          <t>/news,603876,1220410866.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数下降5.11%，户均持股147.36万元</t>
+          <t>鼎胜新材上半年盈利大增292% 电池铝箔业务步入高速扩张期</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-22 18:26</t>
+          <t>08-23 19:37</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1219942329.html</t>
+          <t>/news,603876,1220409442.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年净利润同比增长292%</t>
+          <t>广发证券维持鼎胜新材买入评级 目标价67.3元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-22 18:23</t>
+          <t>08-23 18:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1219944472.html</t>
+          <t>/news,603876,1220399448.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年半年度净利润约5.97亿元 同比增加292.47%</t>
+          <t>国金证券给予鼎胜新材买入评级 供需紧张 加速转产电池箔</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-22 18:22</t>
+          <t>08-23 15:34</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1219944053.html</t>
+          <t>/news,603876,1220355438.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年归母净利润5.97亿元 同比上涨292.47%</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长188.57%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-22 18:13</t>
+          <t>08-23 15:21</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1219943061.html</t>
+          <t>/news,603876,1220347424.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年实现净利润5.97亿元 同比增长292.47%</t>
+          <t>【图解中报】鼎胜新材：2022上半年归母净利润同比翻近3倍，约为6亿元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-22 18:11</t>
+          <t>08-22 21:34</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1219940581.html</t>
+          <t>/news,603876,1220220787.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年净利同比增长292%</t>
+          <t>鼎胜新材上半年净利同比增长292.47%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-22 18:09</t>
+          <t>08-22 19:36</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1219942550.html</t>
+          <t>/news,603876,1219956152.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022上半年净利润同比增长292.5%</t>
+          <t>鼎胜新材股东户数下降5.11%，户均持股147.36万元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-22 18:04</t>
+          <t>08-22 18:26</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1219938060.html</t>
+          <t>/news,603876,1219942329.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3403</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>龙头企业透露供不应求 铝箔量价齐升 钠电池将成新风口？</t>
+          <t>鼎胜新材：上半年净利润同比增长292%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-06 18:39</t>
+          <t>08-22 18:23</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1214664462.html</t>
+          <t>/news,603876,1219944472.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司80万吨项目包含20万吨电池箔成品及配套60万吨坯料</t>
+          <t>鼎胜新材：2022年半年度净利润约5.97亿元 同比增加292.47%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-05 11:55</t>
+          <t>08-22 18:22</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1214396282.html</t>
+          <t>/news,603876,1219944053.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>大宗交易：鼎胜新材成交256万元，成交价64.00元（08-04）</t>
+          <t>鼎胜新材：上半年归母净利润5.97亿元 同比上涨292.47%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-04 17:12</t>
+          <t>08-22 18:13</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1214133162.html</t>
+          <t>/news,603876,1219943061.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级：电池铝箔龙头积极扩产 老树新花打造第二成长曲线</t>
+          <t>鼎胜新材：上半年实现净利润5.97亿元 同比增长292.47%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>07-28 08:25</t>
+          <t>08-22 18:11</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1211128842.html</t>
+          <t>/news,603876,1219940581.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,86 +2931,86 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>浙商证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长156.48%</t>
+          <t>鼎胜新材：上半年净利同比增长292%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>07-28 08:20</t>
+          <t>08-22 18:09</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1211127734.html</t>
+          <t>/news,603876,1219942550.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>610</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材盘中最高69.5元，股价连续两日创近一年新高</t>
+          <t>鼎胜新材：2022上半年净利润同比增长292.5%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>股友377Rx87309</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>07-26 15:47</t>
+          <t>08-22 18:04</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1210536668.html</t>
+          <t>/news,603876,1219938060.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>3403</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材盘中最高68.96元，股价创近一年新高</t>
+          <t>龙头企业透露供不应求 铝箔量价齐升 钠电池将成新风口？</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>股友377Rx87309</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>07-25 15:44</t>
+          <t>08-06 18:39</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1210076721.html</t>
+          <t>/news,603876,1214664462.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,61 +477,61 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,51 +701,51 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,61 +765,61 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,61 +1139,61 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,39 +1203,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>1238</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,83 +1277,83 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>1187</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,61 +1469,61 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,157 +1565,157 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,93 +1725,93 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,61 +1821,61 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,39 +1907,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,22 +2067,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-02 17:17</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1224209876.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-01 17:19</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1223792791.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-01 14:59</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1223750894.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-31 17:22</t>
+          <t>09-02 17:42</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1223341223.html</t>
+          <t>/news,603876,1224214316.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
+          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-30 20:27</t>
+          <t>09-02 17:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1222903536.html</t>
+          <t>/news,603876,1224212132.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,125 +2237,125 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-30 17:35</t>
+          <t>09-02 17:17</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1222855174.html</t>
+          <t>/news,603876,1224209876.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-25 13:07</t>
+          <t>09-01 17:19</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1221203378.html</t>
+          <t>/news,603876,1223792791.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
+          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-25 09:21</t>
+          <t>09-01 14:59</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1220991912.html</t>
+          <t>/news,603876,1223750894.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
+          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-25 08:54</t>
+          <t>08-31 17:22</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1220984724.html</t>
+          <t>/news,603876,1223341223.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-24 20:15</t>
+          <t>08-30 20:27</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1220914870.html</t>
+          <t>/news,603876,1222903536.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
+          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-24 20:09</t>
+          <t>08-30 17:35</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1220913177.html</t>
+          <t>/news,603876,1222855174.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-24 17:50</t>
+          <t>08-25 13:07</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1220883804.html</t>
+          <t>/news,603876,1221203378.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,135 +2451,135 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>鼎胜新材封跌停板 机构资金净买入1859万元</t>
+          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-24 17:47</t>
+          <t>08-25 09:21</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1220882945.html</t>
+          <t>/news,603876,1220991912.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(08-24)</t>
+          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-24 17:20</t>
+          <t>08-25 08:54</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1220884664.html</t>
+          <t>/news,603876,1220984724.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中泰证券维持鼎胜新材买入评级 预计2022年净利润同比增长187.64%</t>
+          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-24 09:05</t>
+          <t>08-24 20:15</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1220489122.html</t>
+          <t>/news,603876,1220914870.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年净利润同比增长292.47% 电池铝箔龙头步入高速扩张期</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-23 19:50</t>
+          <t>08-24 20:09</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1220410866.html</t>
+          <t>/news,603876,1220913177.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>鼎胜新材上半年盈利大增292% 电池铝箔业务步入高速扩张期</t>
+          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-23 19:37</t>
+          <t>08-24 17:50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1220409442.html</t>
+          <t>/news,603876,1220883804.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,39 +2611,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>广发证券维持鼎胜新材买入评级 目标价67.3元</t>
+          <t>鼎胜新材封跌停板 机构资金净买入1859万元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-23 18:54</t>
+          <t>08-24 17:47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1220399448.html</t>
+          <t>/news,603876,1220882945.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>973</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级 供需紧张 加速转产电池箔</t>
+          <t>鼎胜新材(603876)龙虎榜数据(08-24)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-23 15:34</t>
+          <t>08-24 17:20</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1220355438.html</t>
+          <t>/news,603876,1220884664.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长188.57%</t>
+          <t>中泰证券维持鼎胜新材买入评级 预计2022年净利润同比增长187.64%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-23 15:21</t>
+          <t>08-24 09:05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1220347424.html</t>
+          <t>/news,603876,1220489122.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>628</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>【图解中报】鼎胜新材：2022上半年归母净利润同比翻近3倍，约为6亿元</t>
+          <t>鼎胜新材：上半年净利润同比增长292.47% 电池铝箔龙头步入高速扩张期</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-22 21:34</t>
+          <t>08-23 19:50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1220220787.html</t>
+          <t>/news,603876,1220410866.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材上半年净利同比增长292.47%</t>
+          <t>鼎胜新材上半年盈利大增292% 电池铝箔业务步入高速扩张期</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-22 19:36</t>
+          <t>08-23 19:37</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1219956152.html</t>
+          <t>/news,603876,1220409442.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数下降5.11%，户均持股147.36万元</t>
+          <t>广发证券维持鼎胜新材买入评级 目标价67.3元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-22 18:26</t>
+          <t>08-23 18:54</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1219942329.html</t>
+          <t>/news,603876,1220399448.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年净利润同比增长292%</t>
+          <t>国金证券给予鼎胜新材买入评级 供需紧张 加速转产电池箔</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-22 18:23</t>
+          <t>08-23 15:34</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1219944472.html</t>
+          <t>/news,603876,1220355438.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年半年度净利润约5.97亿元 同比增加292.47%</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长188.57%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-22 18:22</t>
+          <t>08-23 15:21</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1219944053.html</t>
+          <t>/news,603876,1220347424.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年归母净利润5.97亿元 同比上涨292.47%</t>
+          <t>【图解中报】鼎胜新材：2022上半年归母净利润同比翻近3倍，约为6亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-22 18:13</t>
+          <t>08-22 21:34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1219943061.html</t>
+          <t>/news,603876,1220220787.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年实现净利润5.97亿元 同比增长292.47%</t>
+          <t>鼎胜新材上半年净利同比增长292.47%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-22 18:11</t>
+          <t>08-22 19:36</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1219940581.html</t>
+          <t>/news,603876,1219956152.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年净利同比增长292%</t>
+          <t>鼎胜新材股东户数下降5.11%，户均持股147.36万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-22 18:09</t>
+          <t>08-22 18:26</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1219942550.html</t>
+          <t>/news,603876,1219942329.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022上半年净利润同比增长292.5%</t>
+          <t>鼎胜新材：上半年净利润同比增长292%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-22 18:04</t>
+          <t>08-22 18:23</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1219938060.html</t>
+          <t>/news,603876,1219944472.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3403</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>龙头企业透露供不应求 铝箔量价齐升 钠电池将成新风口？</t>
+          <t>鼎胜新材：2022年半年度净利润约5.97亿元 同比增加292.47%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-06 18:39</t>
+          <t>08-22 18:22</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1214664462.html</t>
+          <t>/news,603876,1219944053.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>2706</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,39 +563,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,61 +605,61 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>832</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,61 +669,61 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>799</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,39 +883,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,61 +925,61 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,61 +1075,61 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,71 +1203,71 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1238</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,61 +1309,61 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,61 +1405,61 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1187</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,51 +1597,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,83 +1725,83 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,157 +1811,157 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,71 +2067,71 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>819</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-02 17:17</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1224209876.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-01 17:19</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1223792791.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-01 14:59</t>
+          <t>09-02 17:42</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1223750894.html</t>
+          <t>/news,603876,1224214316.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
+          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-31 17:22</t>
+          <t>09-02 17:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1223341223.html</t>
+          <t>/news,603876,1224212132.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-30 20:27</t>
+          <t>09-02 17:17</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1222903536.html</t>
+          <t>/news,603876,1224209876.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
+          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,83 +2397,83 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-30 17:35</t>
+          <t>09-01 17:19</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1222855174.html</t>
+          <t>/news,603876,1223792791.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-25 13:07</t>
+          <t>09-01 14:59</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1221203378.html</t>
+          <t>/news,603876,1223750894.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
+          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-25 09:21</t>
+          <t>08-31 17:22</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1220991912.html</t>
+          <t>/news,603876,1223341223.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-25 08:54</t>
+          <t>08-30 20:27</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1220984724.html</t>
+          <t>/news,603876,1222903536.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
+          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-24 20:15</t>
+          <t>08-30 17:35</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1220914870.html</t>
+          <t>/news,603876,1222855174.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-24 20:09</t>
+          <t>08-25 13:07</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1220913177.html</t>
+          <t>/news,603876,1221203378.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
+          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-24 17:50</t>
+          <t>08-25 09:21</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1220883804.html</t>
+          <t>/news,603876,1220991912.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,39 +2611,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>鼎胜新材封跌停板 机构资金净买入1859万元</t>
+          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-24 17:47</t>
+          <t>08-25 08:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1220882945.html</t>
+          <t>/news,603876,1220984724.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(08-24)</t>
+          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-24 17:20</t>
+          <t>08-24 20:15</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1220884664.html</t>
+          <t>/news,603876,1220914870.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中泰证券维持鼎胜新材买入评级 预计2022年净利润同比增长187.64%</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-24 09:05</t>
+          <t>08-24 20:09</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1220489122.html</t>
+          <t>/news,603876,1220913177.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年净利润同比增长292.47% 电池铝箔龙头步入高速扩张期</t>
+          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,83 +2717,83 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-23 19:50</t>
+          <t>08-24 17:50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1220410866.html</t>
+          <t>/news,603876,1220883804.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材上半年盈利大增292% 电池铝箔业务步入高速扩张期</t>
+          <t>鼎胜新材封跌停板 机构资金净买入1859万元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-23 19:37</t>
+          <t>08-24 17:47</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1220409442.html</t>
+          <t>/news,603876,1220882945.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>975</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>广发证券维持鼎胜新材买入评级 目标价67.3元</t>
+          <t>鼎胜新材(603876)龙虎榜数据(08-24)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-23 18:54</t>
+          <t>08-24 17:20</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1220399448.html</t>
+          <t>/news,603876,1220884664.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,71 +2803,71 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级 供需紧张 加速转产电池箔</t>
+          <t>中泰证券维持鼎胜新材买入评级 预计2022年净利润同比增长187.64%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-23 15:34</t>
+          <t>08-24 09:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1220355438.html</t>
+          <t>/news,603876,1220489122.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长188.57%</t>
+          <t>鼎胜新材：上半年净利润同比增长292.47% 电池铝箔龙头步入高速扩张期</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-23 15:21</t>
+          <t>08-23 19:50</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1220347424.html</t>
+          <t>/news,603876,1220410866.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>【图解中报】鼎胜新材：2022上半年归母净利润同比翻近3倍，约为6亿元</t>
+          <t>鼎胜新材上半年盈利大增292% 电池铝箔业务步入高速扩张期</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-22 21:34</t>
+          <t>08-23 19:37</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1220220787.html</t>
+          <t>/news,603876,1220409442.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材上半年净利同比增长292.47%</t>
+          <t>广发证券维持鼎胜新材买入评级 目标价67.3元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-22 19:36</t>
+          <t>08-23 18:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1219956152.html</t>
+          <t>/news,603876,1220399448.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数下降5.11%，户均持股147.36万元</t>
+          <t>国金证券给予鼎胜新材买入评级 供需紧张 加速转产电池箔</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-22 18:26</t>
+          <t>08-23 15:34</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1219942329.html</t>
+          <t>/news,603876,1220355438.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年净利润同比增长292%</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长188.57%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-22 18:23</t>
+          <t>08-23 15:21</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1219944472.html</t>
+          <t>/news,603876,1220347424.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年半年度净利润约5.97亿元 同比增加292.47%</t>
+          <t>【图解中报】鼎胜新材：2022上半年归母净利润同比翻近3倍，约为6亿元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-22 18:22</t>
+          <t>08-22 21:34</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1219944053.html</t>
+          <t>/news,603876,1220220787.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2706</t>
+          <t>2747</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>759</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>838</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>801</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -905,7 +905,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2377,7 +2377,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>107</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,93 +477,93 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2747</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>2827</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,115 +605,115 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>819</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>860</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>809</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,93 +1203,93 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,103 +1299,103 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,93 +1405,93 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,83 +1597,83 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,12 +1693,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1858,46 +1858,46 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,83 +2077,83 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>819</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,93 +2173,93 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-02 17:42</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224214316.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
+          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-02 17:17</t>
+          <t>09-02 17:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1224209876.html</t>
+          <t>/news,603876,1224212132.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-01 17:19</t>
+          <t>09-02 17:17</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1223792791.html</t>
+          <t>/news,603876,1224209876.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
+          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-01 14:59</t>
+          <t>09-01 17:19</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1223750894.html</t>
+          <t>/news,603876,1223792791.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
+          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-31 17:22</t>
+          <t>09-01 14:59</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1223341223.html</t>
+          <t>/news,603876,1223750894.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
+          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-30 20:27</t>
+          <t>08-31 17:22</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1222903536.html</t>
+          <t>/news,603876,1223341223.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-30 17:35</t>
+          <t>08-30 20:27</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1222855174.html</t>
+          <t>/news,603876,1222903536.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-25 13:07</t>
+          <t>08-30 17:35</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1221203378.html</t>
+          <t>/news,603876,1222855174.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-25 09:21</t>
+          <t>08-25 13:07</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1220991912.html</t>
+          <t>/news,603876,1221203378.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
+          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,83 +2621,83 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-25 08:54</t>
+          <t>08-25 09:21</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1220984724.html</t>
+          <t>/news,603876,1220991912.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
+          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-24 20:15</t>
+          <t>08-25 08:54</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1220914870.html</t>
+          <t>/news,603876,1220984724.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
+          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-24 20:09</t>
+          <t>08-24 20:15</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1220913177.html</t>
+          <t>/news,603876,1220914870.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-24 17:50</t>
+          <t>08-24 20:09</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1220883804.html</t>
+          <t>/news,603876,1220913177.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,135 +2739,135 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材封跌停板 机构资金净买入1859万元</t>
+          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-24 17:47</t>
+          <t>08-24 17:50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1220882945.html</t>
+          <t>/news,603876,1220883804.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(08-24)</t>
+          <t>鼎胜新材封跌停板 机构资金净买入1859万元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-24 17:20</t>
+          <t>08-24 17:47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1220884664.html</t>
+          <t>/news,603876,1220882945.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>975</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中泰证券维持鼎胜新材买入评级 预计2022年净利润同比增长187.64%</t>
+          <t>鼎胜新材(603876)龙虎榜数据(08-24)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-24 09:05</t>
+          <t>08-24 17:20</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1220489122.html</t>
+          <t>/news,603876,1220884664.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年净利润同比增长292.47% 电池铝箔龙头步入高速扩张期</t>
+          <t>中泰证券维持鼎胜新材买入评级 预计2022年净利润同比增长187.64%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-23 19:50</t>
+          <t>08-24 09:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1220410866.html</t>
+          <t>/news,603876,1220489122.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材上半年盈利大增292% 电池铝箔业务步入高速扩张期</t>
+          <t>鼎胜新材：上半年净利润同比增长292.47% 电池铝箔龙头步入高速扩张期</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-23 19:37</t>
+          <t>08-23 19:50</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1220409442.html</t>
+          <t>/news,603876,1220410866.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>广发证券维持鼎胜新材买入评级 目标价67.3元</t>
+          <t>鼎胜新材上半年盈利大增292% 电池铝箔业务步入高速扩张期</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-23 18:54</t>
+          <t>08-23 19:37</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1220399448.html</t>
+          <t>/news,603876,1220409442.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级 供需紧张 加速转产电池箔</t>
+          <t>广发证券维持鼎胜新材买入评级 目标价67.3元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-23 15:34</t>
+          <t>08-23 18:54</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1220355438.html</t>
+          <t>/news,603876,1220399448.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长188.57%</t>
+          <t>国金证券给予鼎胜新材买入评级 供需紧张 加速转产电池箔</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-23 15:21</t>
+          <t>08-23 15:34</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1220347424.html</t>
+          <t>/news,603876,1220355438.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>【图解中报】鼎胜新材：2022上半年归母净利润同比翻近3倍，约为6亿元</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长188.57%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-22 21:34</t>
+          <t>08-23 15:21</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1220220787.html</t>
+          <t>/news,603876,1220347424.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,39 +531,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2827</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>2965</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>851</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,61 +765,61 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>874</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,61 +829,61 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,61 +1085,61 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,61 +1235,61 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,71 +1363,71 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,61 +1469,61 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>1203</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,83 +1885,83 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,157 +1971,157 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,71 +2227,71 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,39 +2355,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-02 17:17</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1224209876.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-01 17:19</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1223792791.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-01 14:59</t>
+          <t>09-02 17:42</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1223750894.html</t>
+          <t>/news,603876,1224214316.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
+          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-31 17:22</t>
+          <t>09-02 17:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1223341223.html</t>
+          <t>/news,603876,1224212132.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-30 20:27</t>
+          <t>09-02 17:17</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1222903536.html</t>
+          <t>/news,603876,1224209876.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
+          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,83 +2557,83 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-30 17:35</t>
+          <t>09-01 17:19</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1222855174.html</t>
+          <t>/news,603876,1223792791.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-25 13:07</t>
+          <t>09-01 14:59</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1221203378.html</t>
+          <t>/news,603876,1223750894.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
+          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-25 09:21</t>
+          <t>08-31 17:22</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1220991912.html</t>
+          <t>/news,603876,1223341223.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,39 +2643,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-25 08:54</t>
+          <t>08-30 20:27</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1220984724.html</t>
+          <t>/news,603876,1222903536.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
+          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-24 20:15</t>
+          <t>08-30 17:35</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1220914870.html</t>
+          <t>/news,603876,1222855174.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-24 20:09</t>
+          <t>08-25 13:07</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1220913177.html</t>
+          <t>/news,603876,1221203378.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
+          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-24 17:50</t>
+          <t>08-25 09:21</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1220883804.html</t>
+          <t>/news,603876,1220991912.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材封跌停板 机构资金净买入1859万元</t>
+          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-24 17:47</t>
+          <t>08-25 08:54</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1220882945.html</t>
+          <t>/news,603876,1220984724.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(08-24)</t>
+          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-24 17:20</t>
+          <t>08-24 20:15</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1220884664.html</t>
+          <t>/news,603876,1220914870.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中泰证券维持鼎胜新材买入评级 预计2022年净利润同比增长187.64%</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-24 09:05</t>
+          <t>08-24 20:09</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1220489122.html</t>
+          <t>/news,603876,1220913177.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年净利润同比增长292.47% 电池铝箔龙头步入高速扩张期</t>
+          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,83 +2877,83 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-23 19:50</t>
+          <t>08-24 17:50</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1220410866.html</t>
+          <t>/news,603876,1220883804.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材上半年盈利大增292% 电池铝箔业务步入高速扩张期</t>
+          <t>鼎胜新材封跌停板 机构资金净买入1859万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>股友3V580102r1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-23 19:37</t>
+          <t>08-24 17:47</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1220409442.html</t>
+          <t>/news,603876,1220882945.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>975</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>广发证券维持鼎胜新材买入评级 目标价67.3元</t>
+          <t>鼎胜新材(603876)龙虎榜数据(08-24)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-23 18:54</t>
+          <t>08-24 17:20</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1220399448.html</t>
+          <t>/news,603876,1220884664.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级 供需紧张 加速转产电池箔</t>
+          <t>中泰证券维持鼎胜新材买入评级 预计2022年净利润同比增长187.64%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-23 15:34</t>
+          <t>08-24 09:05</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1220355438.html</t>
+          <t>/news,603876,1220489122.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>640</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长188.57%</t>
+          <t>鼎胜新材：上半年净利润同比增长292.47% 电池铝箔龙头步入高速扩张期</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-23 15:21</t>
+          <t>08-23 19:50</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1220347424.html</t>
+          <t>/news,603876,1220410866.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>838</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,93 +637,93 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2965</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>2983</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,115 +765,115 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>866</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>887</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,39 +883,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>831</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,39 +1267,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,51 +1309,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,93 +1363,93 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,103 +1459,103 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,93 +1565,93 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>1236</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>1206</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,83 +1757,83 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2018,46 +2018,46 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>669</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,83 +2237,83 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,93 +2333,93 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-02 17:42</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224214316.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
+          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-02 17:17</t>
+          <t>09-02 17:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1224209876.html</t>
+          <t>/news,603876,1224212132.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-01 17:19</t>
+          <t>09-02 17:17</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1223792791.html</t>
+          <t>/news,603876,1224209876.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
+          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-01 14:59</t>
+          <t>09-01 17:19</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1223750894.html</t>
+          <t>/news,603876,1223792791.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
+          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-31 17:22</t>
+          <t>09-01 14:59</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1223341223.html</t>
+          <t>/news,603876,1223750894.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
+          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-30 20:27</t>
+          <t>08-31 17:22</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1222903536.html</t>
+          <t>/news,603876,1223341223.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-30 17:35</t>
+          <t>08-30 20:27</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1222855174.html</t>
+          <t>/news,603876,1222903536.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-25 13:07</t>
+          <t>08-30 17:35</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1221203378.html</t>
+          <t>/news,603876,1222855174.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-25 09:21</t>
+          <t>08-25 13:07</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1220991912.html</t>
+          <t>/news,603876,1221203378.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
+          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,83 +2781,83 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-25 08:54</t>
+          <t>08-25 09:21</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1220984724.html</t>
+          <t>/news,603876,1220991912.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
+          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-24 20:15</t>
+          <t>08-25 08:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1220914870.html</t>
+          <t>/news,603876,1220984724.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
+          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-24 20:09</t>
+          <t>08-24 20:15</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1220913177.html</t>
+          <t>/news,603876,1220914870.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-24 17:50</t>
+          <t>08-24 20:09</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1220883804.html</t>
+          <t>/news,603876,1220913177.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,118 +2899,118 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材封跌停板 机构资金净买入1859万元</t>
+          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>股友3V580102r1</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-24 17:47</t>
+          <t>08-24 17:50</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1220882945.html</t>
+          <t>/news,603876,1220883804.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(08-24)</t>
+          <t>鼎胜新材封跌停板 机构资金净买入1859万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-24 17:20</t>
+          <t>08-24 17:47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1220884664.html</t>
+          <t>/news,603876,1220882945.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>975</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中泰证券维持鼎胜新材买入评级 预计2022年净利润同比增长187.64%</t>
+          <t>鼎胜新材(603876)龙虎榜数据(08-24)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-24 09:05</t>
+          <t>08-24 17:20</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1220489122.html</t>
+          <t>/news,603876,1220884664.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材：上半年净利润同比增长292.47% 电池铝箔龙头步入高速扩张期</t>
+          <t>中泰证券维持鼎胜新材买入评级 预计2022年净利润同比增长187.64%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-23 19:50</t>
+          <t>08-24 09:05</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1220410866.html</t>
+          <t>/news,603876,1220489122.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>640</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>919</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,61 +669,61 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2983</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,93 +765,93 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,51 +861,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>887</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>899</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,61 +957,61 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>842</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,61 +1181,61 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,51 +1245,51 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,157 +1405,157 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
@@ -1582,76 +1582,76 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1236</t>
+          <t>1268</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,61 +1693,61 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,51 +1885,51 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,71 +2099,71 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,157 +2173,157 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-02 17:17</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1224209876.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-01 17:19</t>
+          <t>09-02 17:42</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1223792791.html</t>
+          <t>/news,603876,1224214316.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
+          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-01 14:59</t>
+          <t>09-02 17:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1223750894.html</t>
+          <t>/news,603876,1224212132.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-31 17:22</t>
+          <t>09-02 17:17</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1223341223.html</t>
+          <t>/news,603876,1224209876.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
+          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-30 20:27</t>
+          <t>09-01 17:19</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1222903536.html</t>
+          <t>/news,603876,1223792791.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
+          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-30 17:35</t>
+          <t>09-01 14:59</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1222855174.html</t>
+          <t>/news,603876,1223750894.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-25 13:07</t>
+          <t>08-31 17:22</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1221203378.html</t>
+          <t>/news,603876,1223341223.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,93 +2771,93 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-25 09:21</t>
+          <t>08-30 20:27</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1220991912.html</t>
+          <t>/news,603876,1222903536.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
+          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-25 08:54</t>
+          <t>08-30 17:35</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1220984724.html</t>
+          <t>/news,603876,1222855174.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-24 20:15</t>
+          <t>08-25 13:07</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1220914870.html</t>
+          <t>/news,603876,1221203378.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
+          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-24 20:09</t>
+          <t>08-25 09:21</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1220913177.html</t>
+          <t>/news,603876,1220991912.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,93 +2899,93 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
+          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-24 17:50</t>
+          <t>08-25 08:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1220883804.html</t>
+          <t>/news,603876,1220984724.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材封跌停板 机构资金净买入1859万元</t>
+          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-24 17:47</t>
+          <t>08-24 20:15</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1220882945.html</t>
+          <t>/news,603876,1220914870.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(08-24)</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-24 17:20</t>
+          <t>08-24 20:09</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1220884664.html</t>
+          <t>/news,603876,1220913177.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中泰证券维持鼎胜新材买入评级 预计2022年净利润同比增长187.64%</t>
+          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-24 09:05</t>
+          <t>08-24 17:50</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1220489122.html</t>
+          <t>/news,603876,1220883804.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,71 +457,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,61 +573,61 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>983</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>941</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>899</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,61 +1021,61 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>909</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,61 +1085,61 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>848</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,61 +1341,61 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,61 +1491,61 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,71 +1619,71 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1268</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,61 +1725,61 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>1272</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,61 +1821,61 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>1242</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,51 +1885,51 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,51 +2013,51 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,83 +2141,83 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,157 +2227,157 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,71 +2483,71 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,39 +2611,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-02 17:17</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1224209876.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-01 17:19</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1223792791.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-01 14:59</t>
+          <t>09-02 17:42</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1223750894.html</t>
+          <t>/news,603876,1224214316.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
+          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-31 17:22</t>
+          <t>09-02 17:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1223341223.html</t>
+          <t>/news,603876,1224212132.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-30 20:27</t>
+          <t>09-02 17:17</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1222903536.html</t>
+          <t>/news,603876,1224209876.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
+          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,83 +2813,83 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-30 17:35</t>
+          <t>09-01 17:19</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1222855174.html</t>
+          <t>/news,603876,1223792791.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-25 13:07</t>
+          <t>09-01 14:59</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1221203378.html</t>
+          <t>/news,603876,1223750894.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
+          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-25 09:21</t>
+          <t>08-31 17:22</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1220991912.html</t>
+          <t>/news,603876,1223341223.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,39 +2899,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>财通证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长182.29%</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-25 08:54</t>
+          <t>08-30 20:27</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1220984724.html</t>
+          <t>/news,603876,1222903536.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级 近一个月获得4份券商研报关注 买入4家</t>
+          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-24 20:15</t>
+          <t>08-30 17:35</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1220914870.html</t>
+          <t>/news,603876,1222855174.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长181.83%</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-24 20:09</t>
+          <t>08-25 13:07</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1220913177.html</t>
+          <t>/news,603876,1221203378.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材跌停（08-24）</t>
+          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-24 17:50</t>
+          <t>08-25 09:21</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1220883804.html</t>
+          <t>/news,603876,1220991912.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>692</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>3037</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>906</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>916</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,61 +1149,61 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>858</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,61 +1405,61 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,39 +1587,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,83 +1725,83 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1272</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,71 +1811,71 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,61 +1885,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>1242</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,51 +2013,51 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,61 +2291,61 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,83 +2397,83 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>540</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,61 +2493,61 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,83 +2557,83 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>824</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-02 17:17</t>
+          <t>09-02 17:42</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1224209876.html</t>
+          <t>/news,603876,1224214316.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
+          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-01 17:19</t>
+          <t>09-02 17:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1223792791.html</t>
+          <t>/news,603876,1224212132.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-01 14:59</t>
+          <t>09-02 17:17</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1223750894.html</t>
+          <t>/news,603876,1224209876.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
+          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-31 17:22</t>
+          <t>09-01 17:19</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1223341223.html</t>
+          <t>/news,603876,1223792791.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
+          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-30 20:27</t>
+          <t>09-01 14:59</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1222903536.html</t>
+          <t>/news,603876,1223750894.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
+          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-30 17:35</t>
+          <t>08-31 17:22</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1222855174.html</t>
+          <t>/news,603876,1223341223.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-25 13:07</t>
+          <t>08-30 20:27</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1221203378.html</t>
+          <t>/news,603876,1222903536.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>东北证券首次给予鼎胜新材增持评级 预计2022年净利润同比增长159.74%</t>
+          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-25 09:21</t>
+          <t>08-30 17:35</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1220991912.html</t>
+          <t>/news,603876,1222855174.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>727</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,93 +637,93 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>1043</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,93 +957,93 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>3041</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,115 +1085,115 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>908</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>917</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,39 +1203,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>868</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,39 +1587,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,93 +1683,93 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,103 +1779,103 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,93 +1885,93 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>1217</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,83 +2077,83 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,12 +2173,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2338,46 +2338,46 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>678</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>542</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,51 +2461,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,83 +2557,83 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>824</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,93 +2653,93 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-02 17:42</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224214316.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
+          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-02 17:17</t>
+          <t>09-02 17:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1224209876.html</t>
+          <t>/news,603876,1224212132.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-01 17:19</t>
+          <t>09-02 17:17</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1223792791.html</t>
+          <t>/news,603876,1224209876.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
+          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-01 14:59</t>
+          <t>09-01 17:19</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1223750894.html</t>
+          <t>/news,603876,1223792791.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
+          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-31 17:22</t>
+          <t>09-01 14:59</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1223341223.html</t>
+          <t>/news,603876,1223750894.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
+          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-30 20:27</t>
+          <t>08-31 17:22</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1222903536.html</t>
+          <t>/news,603876,1223341223.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司与海内外大型电池厂商均保持着良好的合作关系</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-30 17:35</t>
+          <t>08-30 20:27</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1222855174.html</t>
+          <t>/news,603876,1222903536.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
+          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 07:28</t>
+          <t>11-20 15:03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1248149399.html</t>
+          <t>/news,603876,1248767853.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-19 07:24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1248634890.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,51 +637,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,39 +691,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1043</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,39 +1011,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3041</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>913</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,39 +1203,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>927</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,61 +1245,61 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>878</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,61 +1501,61 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,39 +1683,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,83 +1821,83 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,71 +1907,71 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,61 +2387,61 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,83 +2493,83 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>544</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,61 +2589,61 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,83 +2653,83 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>831</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-02 17:17</t>
+          <t>09-02 17:42</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1224209876.html</t>
+          <t>/news,603876,1224214316.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
+          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-01 17:19</t>
+          <t>09-02 17:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1223792791.html</t>
+          <t>/news,603876,1224212132.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-01 14:59</t>
+          <t>09-02 17:17</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1223750894.html</t>
+          <t>/news,603876,1224209876.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司意大利工厂暂未购置涂碳设备，后续将依据下游市场需要布局</t>
+          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-31 17:22</t>
+          <t>09-01 17:19</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1223341223.html</t>
+          <t>/news,603876,1223792791.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额为17.7亿元</t>
+          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-30 20:27</t>
+          <t>09-01 14:59</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1222903536.html</t>
+          <t>/news,603876,1223750894.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>822</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1082</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -905,7 +905,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1390</t>
+          <t>1393</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1385,7 +1385,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2473,7 +2473,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>683</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-20 15:03</t>
+          <t>11-22 07:24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1248767853.html</t>
+          <t>/news,603876,1249343613.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
+          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-19 07:24</t>
+          <t>11-20 15:03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1248634890.html</t>
+          <t>/news,603876,1248767853.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
+          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-18 07:28</t>
+          <t>11-19 07:24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1248149399.html</t>
+          <t>/news,603876,1248634890.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,51 +637,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>878</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,39 +691,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,93 +733,93 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>713</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,93 +1053,93 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3054</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,115 +1181,115 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>922</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>931</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>885</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,51 +1565,51 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,39 +1683,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,93 +1779,93 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,103 +1875,103 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>1282</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,93 +1981,93 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,83 +2173,83 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2434,46 +2434,46 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,83 +2653,83 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>831</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,93 +2749,93 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-02 17:42</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224214316.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
+          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-02 17:17</t>
+          <t>09-02 17:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1224209876.html</t>
+          <t>/news,603876,1224212132.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-01 17:19</t>
+          <t>09-02 17:17</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1223792791.html</t>
+          <t>/news,603876,1224209876.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司目前正依据下游市场需求不断提升涂炭箔在公司电池铝箔中的占比</t>
+          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-01 14:59</t>
+          <t>09-01 17:19</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1223750894.html</t>
+          <t>/news,603876,1223792791.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
+          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 07:24</t>
+          <t>11-23 07:23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1249343613.html</t>
+          <t>/news,603876,1249870918.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 15:03</t>
+          <t>11-22 07:24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1248767853.html</t>
+          <t>/news,603876,1249343613.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
+          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-19 07:24</t>
+          <t>11-20 15:03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1248634890.html</t>
+          <t>/news,603876,1248767853.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
+          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-18 07:28</t>
+          <t>11-19 07:24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1248149399.html</t>
+          <t>/news,603876,1248634890.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>896</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,93 +765,93 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>1108</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>722</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,93 +1085,93 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>3065</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,115 +1213,115 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>925</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>934</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>888</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,51 +1597,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,93 +1811,93 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,103 +1907,103 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>1283</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,93 +2013,93 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>1255</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,83 +2205,83 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2466,46 +2466,46 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,83 +2685,83 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>832</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,93 +2781,93 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-02 17:42</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224214316.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
+          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-02 17:17</t>
+          <t>09-02 17:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1224209876.html</t>
+          <t>/news,603876,1224212132.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海于2022年6月27日至2022年8月23日期间减持公司股份约209万股 本次减持计划实施完毕</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-01 17:19</t>
+          <t>09-02 17:17</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1223792791.html</t>
+          <t>/news,603876,1224209876.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
+          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 07:23</t>
+          <t>11-24 07:24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1249870918.html</t>
+          <t>/news,603876,1250414755.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
+          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 07:24</t>
+          <t>11-23 07:23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1249343613.html</t>
+          <t>/news,603876,1249870918.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-20 15:03</t>
+          <t>11-22 07:24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1248767853.html</t>
+          <t>/news,603876,1249343613.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
+          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-19 07:24</t>
+          <t>11-20 15:03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1248634890.html</t>
+          <t>/news,603876,1248767853.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
+          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-18 07:28</t>
+          <t>11-19 07:24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1248149399.html</t>
+          <t>/news,603876,1248634890.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,51 +701,51 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>929</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,93 +797,93 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1108</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>730</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>1455</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,93 +1117,93 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3065</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,115 +1245,115 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>934</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>939</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,39 +1363,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>893</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,39 +1747,39 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,93 +1843,93 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,103 +1939,103 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>1283</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,93 +2045,93 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>1255</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,83 +2237,83 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2498,46 +2498,46 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,83 +2717,83 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>833</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,93 +2813,93 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-02 17:42</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224214316.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超过2%</t>
+          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-02 17:17</t>
+          <t>09-02 17:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1224209876.html</t>
+          <t>/news,603876,1224212132.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
+          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 07:24</t>
+          <t>11-25 07:23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1250414755.html</t>
+          <t>/news,603876,1250937621.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>938</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
+          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 07:23</t>
+          <t>11-24 17:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1249870918.html</t>
+          <t>/news,603876,1250765546.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
+          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 07:24</t>
+          <t>11-24 07:24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1249343613.html</t>
+          <t>/news,603876,1250414755.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
+          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-20 15:03</t>
+          <t>11-23 07:23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1248767853.html</t>
+          <t>/news,603876,1249870918.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
+          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-19 07:24</t>
+          <t>11-22 07:24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1248634890.html</t>
+          <t>/news,603876,1249343613.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
+          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-18 07:28</t>
+          <t>11-20 15:03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1248149399.html</t>
+          <t>/news,603876,1248767853.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-19 07:24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1248634890.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>956</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,51 +797,51 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1455</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>1468</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,39 +1171,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3070</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>943</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,39 +1363,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>943</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,61 +1405,61 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>901</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,61 +1661,61 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,83 +1981,83 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,71 +2067,71 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,61 +2141,61 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,61 +2547,61 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,83 +2653,83 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>09-29 13:07</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1232283956.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>09-28 13:35</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1231846733.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>09-26 08:35</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1230803549.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>09-13 17:56</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1226967713.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>09-13 15:44</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1226941646.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,83 +2813,83 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>09-13 15:21</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1226936191.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>833</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>09-12 09:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1226580103.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>09-05 16:31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1224726272.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>东方证券给予鼎胜新材买入评级</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>09-05 14:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1224696776.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,39 +2931,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>09-05 14:47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1224687421.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东江苏沿海拟减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟减持不超2%股份</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-02 17:42</t>
+          <t>09-02 18:53</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1224214316.html</t>
+          <t>/news,603876,1224225149.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材：江苏沿海拟减持不超2%股份</t>
+          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-02 17:30</t>
+          <t>09-02 17:57</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1224212132.html</t>
+          <t>/news,603876,1224216998.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,39 +467,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
+          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 07:23</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1250937621.html</t>
+          <t>/news,603876,1254648784.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
+          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 17:08</t>
+          <t>12-03 07:38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1250765546.html</t>
+          <t>/news,603876,1254510380.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
+          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 07:24</t>
+          <t>12-02 07:23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1250414755.html</t>
+          <t>/news,603876,1253909092.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
+          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 07:23</t>
+          <t>12-01 07:22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1249870918.html</t>
+          <t>/news,603876,1253296622.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
+          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 07:24</t>
+          <t>11-30 15:07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1249343613.html</t>
+          <t>/news,603876,1253110975.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
+          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-20 15:03</t>
+          <t>11-30 07:22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1248767853.html</t>
+          <t>/news,603876,1252773412.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
+          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-19 07:24</t>
+          <t>11-29 07:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1248634890.html</t>
+          <t>/news,603876,1252208016.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
+          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 07:28</t>
+          <t>11-27 15:03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1248149399.html</t>
+          <t>/news,603876,1251588771.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-26 07:24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1251429626.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-25 17:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1251299533.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>990</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-25 14:10</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1251213930.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,22 +819,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-25 13:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1251199137.html</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-25 07:23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1250937621.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-24 17:08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1250765546.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-24 07:24</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1250414755.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-23 07:23</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1249870918.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-22 07:24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1249343613.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,39 +1011,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-20 15:03</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1248767853.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-19 07:24</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1248634890.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1468</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3071</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,39 +1363,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,61 +1405,61 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>761</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>1507</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>3099</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>977</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>980</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,61 +1885,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>931</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,93 +2013,93 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,93 +2131,93 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,51 +2397,51 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,39 +2451,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1268</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,179 +2589,179 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中信证券首次给予鼎胜新材买入评级 目标价73元</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-29 13:07</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1232283956.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材跑赢行业评级 预计2022年净利润同比增长179.97%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-28 13:35</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1231846733.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>兴业证券首次给予鼎胜新材审慎增持评级 预计2022年净利润同比增长181.6%</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-26 08:35</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1230803549.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为17.48亿元</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-13 17:56</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1226967713.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材：中科海纳是公司下游电池箔客户</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-13 15:44</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1226941646.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔可应用于锂离子电池正极集流体用</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-13 15:21</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1226936191.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>国泰君安维持鼎胜新材增持评级 目标价101.43元</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-12 09:55</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1226580103.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池铝箔下游客户包含国内外主流的动力、数码及储能电池制造厂</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-05 16:31</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1224726272.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>东方证券给予鼎胜新材买入评级</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-05 14:55</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1224696776.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>东方证券首次给予鼎胜新材买入评级 目标价66.6元</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-05 14:47</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1224687421.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟减持不超2%股份</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-02 18:53</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1224225149.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：股东江苏沿海计划减持公司股份不超过约978万股</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-02 17:57</t>
+          <t>10-11 19:21</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1224216998.html</t>
+          <t>/news,603876,1234120655.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
+          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1254648784.html</t>
+          <t>/news,603876,1255445569.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
+          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-03 07:38</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1254510380.html</t>
+          <t>/news,603876,1254648784.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
+          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-02 07:23</t>
+          <t>12-03 07:38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1253909092.html</t>
+          <t>/news,603876,1254510380.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
+          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-01 07:22</t>
+          <t>12-02 07:23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1253296622.html</t>
+          <t>/news,603876,1253909092.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
+          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-30 15:07</t>
+          <t>12-01 07:22</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1253110975.html</t>
+          <t>/news,603876,1253296622.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
+          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-30 07:22</t>
+          <t>11-30 15:07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1252773412.html</t>
+          <t>/news,603876,1253110975.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
+          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-29 07:23</t>
+          <t>11-30 07:22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1252208016.html</t>
+          <t>/news,603876,1252773412.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
+          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-27 15:03</t>
+          <t>11-29 07:23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1251588771.html</t>
+          <t>/news,603876,1252208016.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
+          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-26 07:24</t>
+          <t>11-27 15:03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1251429626.html</t>
+          <t>/news,603876,1251588771.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
+          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-25 17:25</t>
+          <t>11-26 07:24</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1251299533.html</t>
+          <t>/news,603876,1251429626.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-25 14:10</t>
+          <t>11-25 17:25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1251213930.html</t>
+          <t>/news,603876,1251299533.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>993</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
+          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-25 13:55</t>
+          <t>11-25 14:10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1251199137.html</t>
+          <t>/news,603876,1251213930.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
+          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-25 07:23</t>
+          <t>11-25 13:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1250937621.html</t>
+          <t>/news,603876,1251199137.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
+          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-24 17:08</t>
+          <t>11-25 07:23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1250765546.html</t>
+          <t>/news,603876,1250937621.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>1154</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
+          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-24 07:24</t>
+          <t>11-24 17:08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1250414755.html</t>
+          <t>/news,603876,1250765546.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
+          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-23 07:23</t>
+          <t>11-24 07:24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1249870918.html</t>
+          <t>/news,603876,1250414755.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
+          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-22 07:24</t>
+          <t>11-23 07:23</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1249343613.html</t>
+          <t>/news,603876,1249870918.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-20 15:03</t>
+          <t>11-22 07:24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1248767853.html</t>
+          <t>/news,603876,1249343613.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
+          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-19 07:24</t>
+          <t>11-20 15:03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1248634890.html</t>
+          <t>/news,603876,1248767853.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
+          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-18 07:28</t>
+          <t>11-19 07:24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1248149399.html</t>
+          <t>/news,603876,1248634890.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,93 +1277,93 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>1507</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,93 +1597,93 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3099</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,115 +1725,115 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>979</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>982</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>936</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,93 +2323,93 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,103 +2419,103 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,93 +2525,93 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1268</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>1268</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,83 +2717,83 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2978,39 +2978,39 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1235397002.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长226.71%</t>
+          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-11 19:21</t>
+          <t>10-14 16:39</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1234120655.html</t>
+          <t>/news,603876,1235396781.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
+          <t>鼎胜新材：融资净偿还2080.51万元，融资余额1.81亿元（12-06）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-07 07:22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1255445569.html</t>
+          <t>/news,603876,1256086517.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
+          <t>鼎胜新材：股东累计质押情况</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 16:31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1254648784.html</t>
+          <t>/news,603876,1255878783.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
+          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-03 07:38</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1254510380.html</t>
+          <t>/news,603876,1255445569.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
+          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-02 07:23</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1253909092.html</t>
+          <t>/news,603876,1254648784.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
+          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-01 07:22</t>
+          <t>12-03 07:38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1253296622.html</t>
+          <t>/news,603876,1254510380.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
+          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-30 15:07</t>
+          <t>12-02 07:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1253110975.html</t>
+          <t>/news,603876,1253909092.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
+          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-30 07:22</t>
+          <t>12-01 07:22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1252773412.html</t>
+          <t>/news,603876,1253296622.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>610</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
+          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-29 07:23</t>
+          <t>11-30 15:07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1252208016.html</t>
+          <t>/news,603876,1253110975.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
+          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-27 15:03</t>
+          <t>11-30 07:22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1251588771.html</t>
+          <t>/news,603876,1252773412.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
+          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,61 +765,61 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-26 07:24</t>
+          <t>11-29 07:23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1251429626.html</t>
+          <t>/news,603876,1252208016.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
+          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-25 17:25</t>
+          <t>11-27 15:03</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1251299533.html</t>
+          <t>/news,603876,1251588771.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
+          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-25 14:10</t>
+          <t>11-26 07:24</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1251213930.html</t>
+          <t>/news,603876,1251429626.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-25 13:55</t>
+          <t>11-25 17:25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1251199137.html</t>
+          <t>/news,603876,1251299533.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
+          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-25 07:23</t>
+          <t>11-25 14:10</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1250937621.html</t>
+          <t>/news,603876,1251213930.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
+          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-24 17:08</t>
+          <t>11-25 13:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1250765546.html</t>
+          <t>/news,603876,1251199137.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
+          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-24 07:24</t>
+          <t>11-25 07:23</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1250414755.html</t>
+          <t>/news,603876,1250937621.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
+          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-23 07:23</t>
+          <t>11-24 17:08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1249870918.html</t>
+          <t>/news,603876,1250765546.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
+          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-22 07:24</t>
+          <t>11-24 07:24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1249343613.html</t>
+          <t>/news,603876,1250414755.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
+          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-20 15:03</t>
+          <t>11-23 07:23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1248767853.html</t>
+          <t>/news,603876,1249870918.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
+          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-19 07:24</t>
+          <t>11-22 07:24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1248634890.html</t>
+          <t>/news,603876,1249343613.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
+          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-18 07:28</t>
+          <t>11-20 15:03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1248149399.html</t>
+          <t>/news,603876,1248767853.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-19 07:24</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1248634890.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>1055</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1203</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>1507</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3101</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>984</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>985</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,61 +1885,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>937</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,61 +2141,61 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,83 +2461,83 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,71 +2547,71 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1268</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,61 +2621,61 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材：截至公告披露日 公司及子公司累计实际发生的对外担保余额约为16.29亿元</t>
+          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-25 07:22</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1235397002.html</t>
+          <t>/news,603876,1238442568.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材：董事会决定不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-14 16:39</t>
+          <t>10-14 18:36</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1235396781.html</t>
+          <t>/news,603876,1235414567.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还2080.51万元，融资余额1.81亿元（12-06）</t>
+          <t>鼎胜新材：融资净买入222.82万元，融资余额1.83亿元（12-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 07:22</t>
+          <t>12-08 07:22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1256086517.html</t>
+          <t>/news,603876,1256749912.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东累计质押情况</t>
+          <t>鼎胜新材：保守估计 GGII预计到2025年全球动力电池出货量将达到1550GWh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 16:31</t>
+          <t>12-07 14:47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1255878783.html</t>
+          <t>/news,603876,1256479647.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
+          <t>鼎胜新材：融资净偿还2080.51万元，融资余额1.81亿元（12-06）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-07 07:22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1255445569.html</t>
+          <t>/news,603876,1256086517.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
+          <t>鼎胜新材：股东累计质押情况</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 16:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1254648784.html</t>
+          <t>/news,603876,1255878783.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
+          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-03 07:38</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1254510380.html</t>
+          <t>/news,603876,1255445569.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
+          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-02 07:23</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1253909092.html</t>
+          <t>/news,603876,1254648784.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
+          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-01 07:22</t>
+          <t>12-03 07:38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1253296622.html</t>
+          <t>/news,603876,1254510380.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
+          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-30 15:07</t>
+          <t>12-02 07:23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1253110975.html</t>
+          <t>/news,603876,1253909092.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
+          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-30 07:22</t>
+          <t>12-01 07:22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1252773412.html</t>
+          <t>/news,603876,1253296622.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>619</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
+          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-29 07:23</t>
+          <t>11-30 15:07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1252208016.html</t>
+          <t>/news,603876,1253110975.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
+          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-27 15:03</t>
+          <t>11-30 07:22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1251588771.html</t>
+          <t>/news,603876,1252773412.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
+          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,61 +829,61 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-26 07:24</t>
+          <t>11-29 07:23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1251429626.html</t>
+          <t>/news,603876,1252208016.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
+          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-25 17:25</t>
+          <t>11-27 15:03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1251299533.html</t>
+          <t>/news,603876,1251588771.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
+          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-25 14:10</t>
+          <t>11-26 07:24</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1251213930.html</t>
+          <t>/news,603876,1251429626.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-25 13:55</t>
+          <t>11-25 17:25</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1251199137.html</t>
+          <t>/news,603876,1251299533.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
+          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-25 07:23</t>
+          <t>11-25 14:10</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1250937621.html</t>
+          <t>/news,603876,1251213930.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
+          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-24 17:08</t>
+          <t>11-25 13:55</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1250765546.html</t>
+          <t>/news,603876,1251199137.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
+          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-24 07:24</t>
+          <t>11-25 07:23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1250414755.html</t>
+          <t>/news,603876,1250937621.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
+          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-23 07:23</t>
+          <t>11-24 17:08</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1249870918.html</t>
+          <t>/news,603876,1250765546.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
+          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-22 07:24</t>
+          <t>11-24 07:24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1249343613.html</t>
+          <t>/news,603876,1250414755.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
+          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-20 15:03</t>
+          <t>11-23 07:23</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1248767853.html</t>
+          <t>/news,603876,1249870918.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
+          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-19 07:24</t>
+          <t>11-22 07:24</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1248634890.html</t>
+          <t>/news,603876,1249343613.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
+          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-18 07:28</t>
+          <t>11-20 15:03</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1248149399.html</t>
+          <t>/news,603876,1248767853.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-19 07:24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1248634890.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>766</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>1507</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>989</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,39 +1907,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>986</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>938</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,61 +2205,61 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,83 +2525,83 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,71 +2611,71 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,61 +2685,61 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入831万元，融资余额831万元（10-24）</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-25 07:22</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1238442568.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材：不提前赎回“鼎胜转债”</t>
+          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-14 18:36</t>
+          <t>10-26 07:23</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1235414567.html</t>
+          <t>/news,603876,1238964353.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入222.82万元，融资余额1.83亿元（12-07）</t>
+          <t>鼎胜新材：融资净买入327.86万元，融资余额1.86亿元（12-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 07:22</t>
+          <t>12-09 07:23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1256749912.html</t>
+          <t>/news,603876,1257388135.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：保守估计 GGII预计到2025年全球动力电池出货量将达到1550GWh</t>
+          <t>鼎胜新材：融资净买入222.82万元，融资余额1.83亿元（12-07）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 14:47</t>
+          <t>12-08 07:22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1256479647.html</t>
+          <t>/news,603876,1256749912.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>722</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还2080.51万元，融资余额1.81亿元（12-06）</t>
+          <t>鼎胜新材：保守估计 GGII预计到2025年全球动力电池出货量将达到1550GWh</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 07:22</t>
+          <t>12-07 14:47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1256086517.html</t>
+          <t>/news,603876,1256479647.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东累计质押情况</t>
+          <t>鼎胜新材：融资净偿还2080.51万元，融资余额1.81亿元（12-06）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 16:31</t>
+          <t>12-07 07:22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1255878783.html</t>
+          <t>/news,603876,1256086517.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
+          <t>鼎胜新材：股东累计质押情况</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-06 16:31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1255445569.html</t>
+          <t>/news,603876,1255878783.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
+          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1254648784.html</t>
+          <t>/news,603876,1255445569.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
+          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-03 07:38</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1254510380.html</t>
+          <t>/news,603876,1254648784.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
+          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 07:23</t>
+          <t>12-03 07:38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1253909092.html</t>
+          <t>/news,603876,1254510380.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
+          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 07:22</t>
+          <t>12-02 07:23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1253296622.html</t>
+          <t>/news,603876,1253909092.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
+          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-30 15:07</t>
+          <t>12-01 07:22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1253110975.html</t>
+          <t>/news,603876,1253296622.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
+          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-30 07:22</t>
+          <t>11-30 15:07</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1252773412.html</t>
+          <t>/news,603876,1253110975.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
+          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-29 07:23</t>
+          <t>11-30 07:22</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1252208016.html</t>
+          <t>/news,603876,1252773412.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
+          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-27 15:03</t>
+          <t>11-29 07:23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1251588771.html</t>
+          <t>/news,603876,1252208016.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,39 +883,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
+          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-26 07:24</t>
+          <t>11-27 15:03</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1251429626.html</t>
+          <t>/news,603876,1251588771.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
+          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-25 17:25</t>
+          <t>11-26 07:24</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1251299533.html</t>
+          <t>/news,603876,1251429626.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-25 14:10</t>
+          <t>11-25 17:25</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1251213930.html</t>
+          <t>/news,603876,1251299533.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>1019</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
+          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-25 13:55</t>
+          <t>11-25 14:10</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1251199137.html</t>
+          <t>/news,603876,1251213930.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
+          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-25 07:23</t>
+          <t>11-25 13:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1250937621.html</t>
+          <t>/news,603876,1251199137.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
+          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-24 17:08</t>
+          <t>11-25 07:23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1250765546.html</t>
+          <t>/news,603876,1250937621.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
+          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-24 07:24</t>
+          <t>11-24 17:08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1250414755.html</t>
+          <t>/news,603876,1250765546.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
+          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-23 07:23</t>
+          <t>11-24 07:24</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1249870918.html</t>
+          <t>/news,603876,1250414755.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
+          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-22 07:24</t>
+          <t>11-23 07:23</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1249343613.html</t>
+          <t>/news,603876,1249870918.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-20 15:03</t>
+          <t>11-22 07:24</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1248767853.html</t>
+          <t>/news,603876,1249343613.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
+          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-19 07:24</t>
+          <t>11-20 15:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1248634890.html</t>
+          <t>/news,603876,1248767853.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
+          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-18 07:28</t>
+          <t>11-19 07:24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1248149399.html</t>
+          <t>/news,603876,1248634890.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,93 +1437,93 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>766</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>1507</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,93 +1757,93 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>3113</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,115 +1885,115 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>990</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>986</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>939</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,93 +2483,93 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,103 +2579,103 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,93 +2685,93 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>1239</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,83 +2877,83 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:09</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240451820.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:22</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240043387.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1840.58万元，融资余额2671.58万元（10-25）</t>
+          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-26 07:23</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1238964353.html</t>
+          <t>/news,603876,1239494860.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入327.86万元，融资余额1.86亿元（12-08）</t>
+          <t>鼎胜新材本周融资净偿还1007.58万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 07:23</t>
+          <t>12-11 15:03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1257388135.html</t>
+          <t>/news,603876,1258087450.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入222.82万元，融资余额1.83亿元（12-07）</t>
+          <t>鼎胜新材：连续3日融资净买入累计1886.07万元（12-09）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 07:22</t>
+          <t>12-10 07:40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1256749912.html</t>
+          <t>/news,603876,1257963201.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：保守估计 GGII预计到2025年全球动力电池出货量将达到1550GWh</t>
+          <t>鼎胜新材：目前，内蒙基地年产80万吨电池箔及配套坯料项目尚未量产供货</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 14:47</t>
+          <t>12-09 17:25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1256479647.html</t>
+          <t>/news,603876,1257803687.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还2080.51万元，融资余额1.81亿元（12-06）</t>
+          <t>鼎胜新材：融资净买入327.86万元，融资余额1.86亿元（12-08）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-07 07:22</t>
+          <t>12-09 07:23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1256086517.html</t>
+          <t>/news,603876,1257388135.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东累计质押情况</t>
+          <t>鼎胜新材：融资净买入222.82万元，融资余额1.83亿元（12-07）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 16:31</t>
+          <t>12-08 07:22</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1255878783.html</t>
+          <t>/news,603876,1256749912.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>782</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
+          <t>鼎胜新材：保守估计 GGII预计到2025年全球动力电池出货量将达到1550GWh</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-07 14:47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1255445569.html</t>
+          <t>/news,603876,1256479647.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
+          <t>鼎胜新材：融资净偿还2080.51万元，融资余额1.81亿元（12-06）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-07 07:22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1254648784.html</t>
+          <t>/news,603876,1256086517.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
+          <t>鼎胜新材：股东累计质押情况</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-03 07:38</t>
+          <t>12-06 16:31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1254510380.html</t>
+          <t>/news,603876,1255878783.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
+          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 07:23</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1253909092.html</t>
+          <t>/news,603876,1255445569.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
+          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-01 07:22</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1253296622.html</t>
+          <t>/news,603876,1254648784.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
+          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-30 15:07</t>
+          <t>12-03 07:38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1253110975.html</t>
+          <t>/news,603876,1254510380.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
+          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-30 07:22</t>
+          <t>12-02 07:23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1252773412.html</t>
+          <t>/news,603876,1253909092.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
+          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-29 07:23</t>
+          <t>12-01 07:22</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1252208016.html</t>
+          <t>/news,603876,1253296622.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
+          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-27 15:03</t>
+          <t>11-30 15:07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1251588771.html</t>
+          <t>/news,603876,1253110975.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
+          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-26 07:24</t>
+          <t>11-30 07:22</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1251429626.html</t>
+          <t>/news,603876,1252773412.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
+          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,51 +957,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-25 17:25</t>
+          <t>11-29 07:23</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1251299533.html</t>
+          <t>/news,603876,1252208016.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1019</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
+          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-25 14:10</t>
+          <t>11-27 15:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1251213930.html</t>
+          <t>/news,603876,1251588771.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
+          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-25 13:55</t>
+          <t>11-26 07:24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1251199137.html</t>
+          <t>/news,603876,1251429626.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-25 07:23</t>
+          <t>11-25 17:25</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1250937621.html</t>
+          <t>/news,603876,1251299533.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1027</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
+          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-24 17:08</t>
+          <t>11-25 14:10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1250765546.html</t>
+          <t>/news,603876,1251213930.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
+          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-24 07:24</t>
+          <t>11-25 13:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1250414755.html</t>
+          <t>/news,603876,1251199137.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
+          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-23 07:23</t>
+          <t>11-25 07:23</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1249870918.html</t>
+          <t>/news,603876,1250937621.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
+          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-22 07:24</t>
+          <t>11-24 17:08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1249343613.html</t>
+          <t>/news,603876,1250765546.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
+          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-20 15:03</t>
+          <t>11-24 07:24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1248767853.html</t>
+          <t>/news,603876,1250414755.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
+          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-19 07:24</t>
+          <t>11-23 07:23</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1248634890.html</t>
+          <t>/news,603876,1249870918.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
+          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-18 07:28</t>
+          <t>11-22 07:24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1248149399.html</t>
+          <t>/news,603876,1249343613.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-20 15:03</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1248767853.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-19 07:24</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1248634890.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,39 +1491,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,39 +1587,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>769</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>1511</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3113</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,93 +1885,93 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>3113</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>992</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>987</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>940</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,39 +2419,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,157 +2525,157 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,93 +2685,93 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材：2022年前三季度净利润同比增长293.3%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 16:09</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1240451820.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>1239</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1433.96万元，融资余额5423.37万元（10-27）</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 07:22</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1240043387.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1317.83万元，融资余额3989.41万元（10-26）</t>
+          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 16:15</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1239494860.html</t>
+          <t>/news,603876,1240454259.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净偿还1007.58万元，居有色金属板块第十</t>
+          <t>鼎胜新材：融资净偿还218.47万元，融资余额1.97亿元（12-12）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-11 15:03</t>
+          <t>12-13 07:35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1258087450.html</t>
+          <t>/news,603876,1258758812.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1886.07万元（12-09）</t>
+          <t>鼎胜新材本周融资净偿还1007.58万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-10 07:40</t>
+          <t>12-11 15:03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1257963201.html</t>
+          <t>/news,603876,1258087450.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前，内蒙基地年产80万吨电池箔及配套坯料项目尚未量产供货</t>
+          <t>鼎胜新材：连续3日融资净买入累计1886.07万元（12-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-09 17:25</t>
+          <t>12-10 07:40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1257803687.html</t>
+          <t>/news,603876,1257963201.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入327.86万元，融资余额1.86亿元（12-08）</t>
+          <t>鼎胜新材：目前，内蒙基地年产80万吨电池箔及配套坯料项目尚未量产供货</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-09 07:23</t>
+          <t>12-09 17:25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1257388135.html</t>
+          <t>/news,603876,1257803687.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入222.82万元，融资余额1.83亿元（12-07）</t>
+          <t>鼎胜新材：融资净买入327.86万元，融资余额1.86亿元（12-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-08 07:22</t>
+          <t>12-09 07:23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1256749912.html</t>
+          <t>/news,603876,1257388135.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：保守估计 GGII预计到2025年全球动力电池出货量将达到1550GWh</t>
+          <t>鼎胜新材：融资净买入222.82万元，融资余额1.83亿元（12-07）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 14:47</t>
+          <t>12-08 07:22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1256479647.html</t>
+          <t>/news,603876,1256749912.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还2080.51万元，融资余额1.81亿元（12-06）</t>
+          <t>鼎胜新材：保守估计 GGII预计到2025年全球动力电池出货量将达到1550GWh</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-07 07:22</t>
+          <t>12-07 14:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1256086517.html</t>
+          <t>/news,603876,1256479647.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东累计质押情况</t>
+          <t>鼎胜新材：融资净偿还2080.51万元，融资余额1.81亿元（12-06）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 16:31</t>
+          <t>12-07 07:22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1255878783.html</t>
+          <t>/news,603876,1256086517.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
+          <t>鼎胜新材：股东累计质押情况</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-06 16:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1255445569.html</t>
+          <t>/news,603876,1255878783.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
+          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1254648784.html</t>
+          <t>/news,603876,1255445569.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
+          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-03 07:38</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1254510380.html</t>
+          <t>/news,603876,1254648784.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
+          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 07:23</t>
+          <t>12-03 07:38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1253909092.html</t>
+          <t>/news,603876,1254510380.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
+          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 07:22</t>
+          <t>12-02 07:23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1253296622.html</t>
+          <t>/news,603876,1253909092.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
+          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 15:07</t>
+          <t>12-01 07:22</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1253110975.html</t>
+          <t>/news,603876,1253296622.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
+          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 07:22</t>
+          <t>11-30 15:07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1252773412.html</t>
+          <t>/news,603876,1253110975.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
+          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-29 07:23</t>
+          <t>11-30 07:22</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1252208016.html</t>
+          <t>/news,603876,1252773412.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
+          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-27 15:03</t>
+          <t>11-29 07:23</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1251588771.html</t>
+          <t>/news,603876,1252208016.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,39 +1011,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
+          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-26 07:24</t>
+          <t>11-27 15:03</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1251429626.html</t>
+          <t>/news,603876,1251588771.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
+          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-25 17:25</t>
+          <t>11-26 07:24</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1251299533.html</t>
+          <t>/news,603876,1251429626.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-25 14:10</t>
+          <t>11-25 17:25</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1251213930.html</t>
+          <t>/news,603876,1251299533.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1031</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
+          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-25 13:55</t>
+          <t>11-25 14:10</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1251199137.html</t>
+          <t>/news,603876,1251213930.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
+          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-25 07:23</t>
+          <t>11-25 13:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1250937621.html</t>
+          <t>/news,603876,1251199137.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
+          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-24 17:08</t>
+          <t>11-25 07:23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1250765546.html</t>
+          <t>/news,603876,1250937621.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
+          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-24 07:24</t>
+          <t>11-24 17:08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1250414755.html</t>
+          <t>/news,603876,1250765546.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
+          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-23 07:23</t>
+          <t>11-24 07:24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1249870918.html</t>
+          <t>/news,603876,1250414755.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
+          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-22 07:24</t>
+          <t>11-23 07:23</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1249343613.html</t>
+          <t>/news,603876,1249870918.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-20 15:03</t>
+          <t>11-22 07:24</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1248767853.html</t>
+          <t>/news,603876,1249343613.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
+          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-19 07:24</t>
+          <t>11-20 15:03</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1248634890.html</t>
+          <t>/news,603876,1248767853.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
+          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-18 07:28</t>
+          <t>11-19 07:24</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1248149399.html</t>
+          <t>/news,603876,1248634890.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,39 +1523,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,93 +1565,93 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1511</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>1511</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,93 +1885,93 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3113</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,115 +2013,115 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>992</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>987</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>940</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,51 +2397,51 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,39 +2515,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,93 +2611,93 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,103 +2707,103 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,93 +2813,93 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利润4.36亿元 同比增长294.36%</t>
+          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 16:15</t>
+          <t>10-28 16:27</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1240454259.html</t>
+          <t>/news,603876,1240458505.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还218.47万元，融资余额1.97亿元（12-12）</t>
+          <t>鼎胜新材：融资净偿还91.93万元，融资余额1.96亿元（12-13）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 07:35</t>
+          <t>12-14 07:41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1258758812.html</t>
+          <t>/news,603876,1259345348.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净偿还1007.58万元，居有色金属板块第十</t>
+          <t>鼎胜新材：融资净偿还218.47万元，融资余额1.97亿元（12-12）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 15:03</t>
+          <t>12-13 07:35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1258087450.html</t>
+          <t>/news,603876,1258758812.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1886.07万元（12-09）</t>
+          <t>鼎胜新材本周融资净偿还1007.58万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-10 07:40</t>
+          <t>12-11 15:03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1257963201.html</t>
+          <t>/news,603876,1258087450.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前，内蒙基地年产80万吨电池箔及配套坯料项目尚未量产供货</t>
+          <t>鼎胜新材：连续3日融资净买入累计1886.07万元（12-09）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-09 17:25</t>
+          <t>12-10 07:40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1257803687.html</t>
+          <t>/news,603876,1257963201.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入327.86万元，融资余额1.86亿元（12-08）</t>
+          <t>鼎胜新材：目前，内蒙基地年产80万吨电池箔及配套坯料项目尚未量产供货</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-09 07:23</t>
+          <t>12-09 17:25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1257388135.html</t>
+          <t>/news,603876,1257803687.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入222.82万元，融资余额1.83亿元（12-07）</t>
+          <t>鼎胜新材：融资净买入327.86万元，融资余额1.86亿元（12-08）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-08 07:22</t>
+          <t>12-09 07:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1256749912.html</t>
+          <t>/news,603876,1257388135.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：保守估计 GGII预计到2025年全球动力电池出货量将达到1550GWh</t>
+          <t>鼎胜新材：融资净买入222.82万元，融资余额1.83亿元（12-07）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-07 14:47</t>
+          <t>12-08 07:22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1256479647.html</t>
+          <t>/news,603876,1256749912.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>797</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还2080.51万元，融资余额1.81亿元（12-06）</t>
+          <t>鼎胜新材：保守估计 GGII预计到2025年全球动力电池出货量将达到1550GWh</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-07 07:22</t>
+          <t>12-07 14:47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1256086517.html</t>
+          <t>/news,603876,1256479647.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东累计质押情况</t>
+          <t>鼎胜新材：融资净偿还2080.51万元，融资余额1.81亿元（12-06）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-06 16:31</t>
+          <t>12-07 07:22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1255878783.html</t>
+          <t>/news,603876,1256086517.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
+          <t>鼎胜新材：股东累计质押情况</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-06 16:31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1255445569.html</t>
+          <t>/news,603876,1255878783.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
+          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1254648784.html</t>
+          <t>/news,603876,1255445569.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
+          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-03 07:38</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1254510380.html</t>
+          <t>/news,603876,1254648784.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
+          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 07:23</t>
+          <t>12-03 07:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1253909092.html</t>
+          <t>/news,603876,1254510380.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
+          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 07:22</t>
+          <t>12-02 07:23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1253296622.html</t>
+          <t>/news,603876,1253909092.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
+          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 15:07</t>
+          <t>12-01 07:22</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1253110975.html</t>
+          <t>/news,603876,1253296622.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
+          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 07:22</t>
+          <t>11-30 15:07</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1252773412.html</t>
+          <t>/news,603876,1253110975.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
+          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-29 07:23</t>
+          <t>11-30 07:22</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1252208016.html</t>
+          <t>/news,603876,1252773412.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
+          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-27 15:03</t>
+          <t>11-29 07:23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1251588771.html</t>
+          <t>/news,603876,1252208016.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
+          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-26 07:24</t>
+          <t>11-27 15:03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1251429626.html</t>
+          <t>/news,603876,1251588771.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
+          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-25 17:25</t>
+          <t>11-26 07:24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1251299533.html</t>
+          <t>/news,603876,1251429626.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-25 14:10</t>
+          <t>11-25 17:25</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1251213930.html</t>
+          <t>/news,603876,1251299533.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1032</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
+          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-25 13:55</t>
+          <t>11-25 14:10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1251199137.html</t>
+          <t>/news,603876,1251213930.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
+          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-25 07:23</t>
+          <t>11-25 13:55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1250937621.html</t>
+          <t>/news,603876,1251199137.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
+          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-24 17:08</t>
+          <t>11-25 07:23</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1250765546.html</t>
+          <t>/news,603876,1250937621.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>1170</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
+          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-24 07:24</t>
+          <t>11-24 17:08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1250414755.html</t>
+          <t>/news,603876,1250765546.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
+          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-23 07:23</t>
+          <t>11-24 07:24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1249870918.html</t>
+          <t>/news,603876,1250414755.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
+          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-22 07:24</t>
+          <t>11-23 07:23</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1249343613.html</t>
+          <t>/news,603876,1249870918.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-20 15:03</t>
+          <t>11-22 07:24</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1248767853.html</t>
+          <t>/news,603876,1249343613.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
+          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-19 07:24</t>
+          <t>11-20 15:03</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1248634890.html</t>
+          <t>/news,603876,1248767853.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
+          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-18 07:28</t>
+          <t>11-19 07:24</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1248149399.html</t>
+          <t>/news,603876,1248634890.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,93 +1597,93 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1511</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>1511</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,93 +1917,93 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3114</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>3117</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,115 +2045,115 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>993</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>987</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,39 +2163,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>941</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,93 +2643,93 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,103 +2739,103 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,93 +2845,93 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-29 07:43</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1240598859.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-28 23:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1240577863.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-28 21:53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240551715.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-28 19:58</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240518122.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度归母净利润10.33亿元 同比增长293.27%</t>
+          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 16:27</t>
+          <t>10-28 16:28</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1240458505.html</t>
+          <t>/news,603876,1240458502.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还91.93万元，融资余额1.96亿元（12-13）</t>
+          <t>鼎胜新材：融资净偿还492.07万元，融资余额1.88亿元（12-19）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 07:41</t>
+          <t>12-20 07:28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1259345348.html</t>
+          <t>/news,603876,1261719774.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,61 +499,61 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还218.47万元，融资余额1.97亿元（12-12）</t>
+          <t>鼎胜新材本周融资净偿还640.7万元，居有色金属板块第十九</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 07:35</t>
+          <t>12-18 15:03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1258758812.html</t>
+          <t>/news,603876,1261085697.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净偿还1007.58万元，居有色金属板块第十</t>
+          <t>鼎胜新材：融资净偿还725.62万元，融资余额1.93亿元（12-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 15:03</t>
+          <t>12-17 07:23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1258087450.html</t>
+          <t>/news,603876,1260972101.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1886.07万元（12-09）</t>
+          <t>鼎胜新材：融资净买入542.83万元，融资余额2亿元（12-15）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-10 07:40</t>
+          <t>12-16 07:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1257963201.html</t>
+          <t>/news,603876,1260474423.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前，内蒙基地年产80万吨电池箔及配套坯料项目尚未量产供货</t>
+          <t>鼎胜新材：连续3日融资净偿还累计457.9万元（12-14）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-09 17:25</t>
+          <t>12-15 07:35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1257803687.html</t>
+          <t>/news,603876,1259930359.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入327.86万元，融资余额1.86亿元（12-08）</t>
+          <t>鼎胜新材：融资净偿还91.93万元，融资余额1.96亿元（12-13）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-09 07:23</t>
+          <t>12-14 07:41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1257388135.html</t>
+          <t>/news,603876,1259345348.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入222.82万元，融资余额1.83亿元（12-07）</t>
+          <t>鼎胜新材：融资净偿还218.47万元，融资余额1.97亿元（12-12）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-08 07:22</t>
+          <t>12-13 07:35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1256749912.html</t>
+          <t>/news,603876,1258758812.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材：保守估计 GGII预计到2025年全球动力电池出货量将达到1550GWh</t>
+          <t>鼎胜新材本周融资净偿还1007.58万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-07 14:47</t>
+          <t>12-11 15:03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1256479647.html</t>
+          <t>/news,603876,1258087450.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还2080.51万元，融资余额1.81亿元（12-06）</t>
+          <t>鼎胜新材：连续3日融资净买入累计1886.07万元（12-09）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-07 07:22</t>
+          <t>12-10 07:40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1256086517.html</t>
+          <t>/news,603876,1257963201.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东累计质押情况</t>
+          <t>鼎胜新材：目前，内蒙基地年产80万吨电池箔及配套坯料项目尚未量产供货</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-06 16:31</t>
+          <t>12-09 17:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1255878783.html</t>
+          <t>/news,603876,1257803687.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
+          <t>鼎胜新材：融资净买入327.86万元，融资余额1.86亿元（12-08）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-09 07:23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1255445569.html</t>
+          <t>/news,603876,1257388135.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
+          <t>鼎胜新材：融资净买入222.82万元，融资余额1.83亿元（12-07）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-08 07:22</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1254648784.html</t>
+          <t>/news,603876,1256749912.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>864</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
+          <t>鼎胜新材：保守估计 GGII预计到2025年全球动力电池出货量将达到1550GWh</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-03 07:38</t>
+          <t>12-07 14:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1254510380.html</t>
+          <t>/news,603876,1256479647.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
+          <t>鼎胜新材：融资净偿还2080.51万元，融资余额1.81亿元（12-06）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 07:23</t>
+          <t>12-07 07:22</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1253909092.html</t>
+          <t>/news,603876,1256086517.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
+          <t>鼎胜新材：股东累计质押情况</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 07:22</t>
+          <t>12-06 16:31</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1253296622.html</t>
+          <t>/news,603876,1255878783.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
+          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 15:07</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1253110975.html</t>
+          <t>/news,603876,1255445569.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
+          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 07:22</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1252773412.html</t>
+          <t>/news,603876,1254648784.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
+          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-29 07:23</t>
+          <t>12-03 07:38</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1252208016.html</t>
+          <t>/news,603876,1254510380.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
+          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-27 15:03</t>
+          <t>12-02 07:23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1251588771.html</t>
+          <t>/news,603876,1253909092.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
+          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-26 07:24</t>
+          <t>12-01 07:22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1251429626.html</t>
+          <t>/news,603876,1253296622.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
+          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-25 17:25</t>
+          <t>11-30 15:07</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1251299533.html</t>
+          <t>/news,603876,1253110975.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
+          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-25 14:10</t>
+          <t>11-30 07:22</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1251213930.html</t>
+          <t>/news,603876,1252773412.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
+          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-25 13:55</t>
+          <t>11-29 07:23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1251199137.html</t>
+          <t>/news,603876,1252208016.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,39 +1203,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
+          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-25 07:23</t>
+          <t>11-27 15:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1250937621.html</t>
+          <t>/news,603876,1251588771.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
+          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-24 17:08</t>
+          <t>11-26 07:24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1250765546.html</t>
+          <t>/news,603876,1251429626.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-24 07:24</t>
+          <t>11-25 17:25</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1250414755.html</t>
+          <t>/news,603876,1251299533.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
+          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-23 07:23</t>
+          <t>11-25 14:10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1249870918.html</t>
+          <t>/news,603876,1251213930.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
+          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-22 07:24</t>
+          <t>11-25 13:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1249343613.html</t>
+          <t>/news,603876,1251199137.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,39 +1363,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-20 15:03</t>
+          <t>11-25 07:23</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1248767853.html</t>
+          <t>/news,603876,1250937621.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>1178</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
+          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-19 07:24</t>
+          <t>11-24 17:08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1248634890.html</t>
+          <t>/news,603876,1250765546.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
+          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-18 07:28</t>
+          <t>11-24 07:24</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1248149399.html</t>
+          <t>/news,603876,1250414755.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-23 07:23</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1249870918.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-22 07:24</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1249343613.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-20 15:03</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1248767853.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-19 07:24</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1248634890.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1511</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>1516</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3117</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,115 +2077,115 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>3130</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>993</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,51 +2301,51 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>946</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,51 +2461,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>11-01 07:36</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1241294386.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还614.21万元，融资余额4809.16万元（10-28）</t>
+          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-29 07:43</t>
+          <t>10-31 19:15</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1240598859.html</t>
+          <t>/news,603876,1241197709.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,61 +2899,61 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>山西证券首次给予鼎胜新材买入评级 预计2022年净利润同比增长238.33%</t>
+          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 23:55</t>
+          <t>10-31 14:42</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1240577863.html</t>
+          <t>/news,603876,1241106309.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鼎胜新材：第三季度净利4.36亿元 同比增长294.36%</t>
+          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 21:53</t>
+          <t>10-31 14:32</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1240551715.html</t>
+          <t>/news,603876,1241093057.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>【图解季报】鼎胜新材：2022年前三季度归母净利润同比翻近3倍，约为10.3亿元</t>
+          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-28 19:58</t>
+          <t>10-30 15:03</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1240518122.html</t>
+          <t>/news,603876,1240711365.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材股东户数增加26.05%，户均持股145.24万元</t>
+          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 16:28</t>
+          <t>10-29 12:04</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1240458502.html</t>
+          <t>/news,603876,1240618790.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/603876.xlsx
+++ b/news_ann/news/tmp/603876.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还492.07万元，融资余额1.88亿元（12-19）</t>
+          <t>鼎胜新材：融资净买入49.8万元，融资余额1.92亿元（12-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 07:28</t>
+          <t>12-23 07:22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,603876,1261719774.html</t>
+          <t>/news,603876,1263186093.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净偿还640.7万元，居有色金属板块第十九</t>
+          <t>鼎胜新材今日大宗交易折价成交414.82万股  成交额1.7亿元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-18 15:03</t>
+          <t>12-22 19:23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,603876,1261085697.html</t>
+          <t>/news,603876,1263071891.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还725.62万元，融资余额1.93亿元（12-16）</t>
+          <t>鼎胜新材：普润平方解除质押2100万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-17 07:23</t>
+          <t>12-22 17:36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,603876,1260972101.html</t>
+          <t>/news,603876,1263039357.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入542.83万元，融资余额2亿元（12-15）</t>
+          <t>大宗交易：鼎胜新材成交1.7亿元，折价3.05%（12-22）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-16 07:34</t>
+          <t>12-22 17:13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,603876,1260474423.html</t>
+          <t>/news,603876,1263033901.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净偿还累计457.9万元（12-14）</t>
+          <t>鼎胜新材：融资净偿还98.26万元，融资余额1.91亿元（12-21）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-15 07:35</t>
+          <t>12-22 07:22</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,603876,1259930359.html</t>
+          <t>/news,603876,1262665599.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还91.93万元，融资余额1.96亿元（12-13）</t>
+          <t>鼎胜新材：融资净买入378.9万元，融资余额1.92亿元（12-20）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-14 07:41</t>
+          <t>12-21 07:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,603876,1259345348.html</t>
+          <t>/news,603876,1262195804.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还218.47万元，融资余额1.97亿元（12-12）</t>
+          <t>鼎胜新材：融资净偿还492.07万元，融资余额1.88亿元（12-19）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-13 07:35</t>
+          <t>12-20 07:28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,603876,1258758812.html</t>
+          <t>/news,603876,1261719774.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净偿还1007.58万元，居有色金属板块第十</t>
+          <t>鼎胜新材本周融资净偿还640.7万元，居有色金属板块第十九</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-11 15:03</t>
+          <t>12-18 15:03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,603876,1258087450.html</t>
+          <t>/news,603876,1261085697.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1886.07万元（12-09）</t>
+          <t>鼎胜新材：融资净偿还725.62万元，融资余额1.93亿元（12-16）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-10 07:40</t>
+          <t>12-17 07:23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,603876,1257963201.html</t>
+          <t>/news,603876,1260972101.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前，内蒙基地年产80万吨电池箔及配套坯料项目尚未量产供货</t>
+          <t>鼎胜新材：融资净买入542.83万元，融资余额2亿元（12-15）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 17:25</t>
+          <t>12-16 07:34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,603876,1257803687.html</t>
+          <t>/news,603876,1260474423.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入327.86万元，融资余额1.86亿元（12-08）</t>
+          <t>鼎胜新材：连续3日融资净偿还累计457.9万元（12-14）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-09 07:23</t>
+          <t>12-15 07:35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,603876,1257388135.html</t>
+          <t>/news,603876,1259930359.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入222.82万元，融资余额1.83亿元（12-07）</t>
+          <t>鼎胜新材：融资净偿还91.93万元，融资余额1.96亿元（12-13）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-08 07:22</t>
+          <t>12-14 07:41</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,603876,1256749912.html</t>
+          <t>/news,603876,1259345348.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鼎胜新材：保守估计 GGII预计到2025年全球动力电池出货量将达到1550GWh</t>
+          <t>鼎胜新材：融资净偿还218.47万元，融资余额1.97亿元（12-12）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-07 14:47</t>
+          <t>12-13 07:35</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,603876,1256479647.html</t>
+          <t>/news,603876,1258758812.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,39 +883,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还2080.51万元，融资余额1.81亿元（12-06）</t>
+          <t>鼎胜新材本周融资净偿还1007.58万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-07 07:22</t>
+          <t>12-11 15:03</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,603876,1256086517.html</t>
+          <t>/news,603876,1258087450.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东累计质押情况</t>
+          <t>鼎胜新材：连续3日融资净买入累计1886.07万元（12-09）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-06 16:31</t>
+          <t>12-10 07:40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,603876,1255878783.html</t>
+          <t>/news,603876,1257963201.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
+          <t>鼎胜新材：目前，内蒙基地年产80万吨电池箔及配套坯料项目尚未量产供货</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-06 07:36</t>
+          <t>12-09 17:25</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,603876,1255445569.html</t>
+          <t>/news,603876,1257803687.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
+          <t>鼎胜新材：融资净买入327.86万元，融资余额1.86亿元（12-08）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-09 07:23</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,603876,1254648784.html</t>
+          <t>/news,603876,1257388135.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
+          <t>鼎胜新材：融资净买入222.82万元，融资余额1.83亿元（12-07）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-03 07:38</t>
+          <t>12-08 07:22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,603876,1254510380.html</t>
+          <t>/news,603876,1256749912.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>883</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
+          <t>鼎胜新材：保守估计 GGII预计到2025年全球动力电池出货量将达到1550GWh</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 07:23</t>
+          <t>12-07 14:47</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,603876,1253909092.html</t>
+          <t>/news,603876,1256479647.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
+          <t>鼎胜新材：融资净偿还2080.51万元，融资余额1.81亿元（12-06）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 07:22</t>
+          <t>12-07 07:22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,603876,1253296622.html</t>
+          <t>/news,603876,1256086517.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
+          <t>鼎胜新材：股东累计质押情况</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 15:07</t>
+          <t>12-06 16:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,603876,1253110975.html</t>
+          <t>/news,603876,1255878783.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
+          <t>鼎胜新材：融资净偿还813.14万元，融资余额2.01亿元（12-05）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 07:22</t>
+          <t>12-06 07:36</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,603876,1252773412.html</t>
+          <t>/news,603876,1255445569.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
+          <t>鼎胜新材本周融资净买入2656.23万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 07:23</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,603876,1252208016.html</t>
+          <t>/news,603876,1254648784.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
+          <t>鼎胜新材：融资净买入196.9万元，融资余额2.1亿元（12-02）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-27 15:03</t>
+          <t>12-03 07:38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,603876,1251588771.html</t>
+          <t>/news,603876,1254510380.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
+          <t>鼎胜新材：融资净偿还424.92万元，融资余额2.08亿元（12-01）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-26 07:24</t>
+          <t>12-02 07:23</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,603876,1251429626.html</t>
+          <t>/news,603876,1253909092.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
+          <t>鼎胜新材：融资净偿还168.17万元，融资余额2.12亿元（11-30）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-25 17:25</t>
+          <t>12-01 07:22</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,603876,1251299533.html</t>
+          <t>/news,603876,1253296622.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
+          <t>鼎胜新材：目前 公司海外生产基地生产有序推进</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-25 14:10</t>
+          <t>11-30 15:07</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,603876,1251213930.html</t>
+          <t>/news,603876,1253110975.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
+          <t>鼎胜新材：连续4日融资净买入累计3547.13万元（11-29）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-25 13:55</t>
+          <t>11-30 07:22</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,603876,1251199137.html</t>
+          <t>/news,603876,1252773412.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
+          <t>鼎胜新材：连续3日融资净买入累计2283.27万元（11-28）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 07:23</t>
+          <t>11-29 07:23</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,603876,1250937621.html</t>
+          <t>/news,603876,1252208016.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1178</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
+          <t>鼎胜新材本周融资净偿还557.62万元，居有色金属板块第十三</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-24 17:08</t>
+          <t>11-27 15:03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,603876,1250765546.html</t>
+          <t>/news,603876,1251588771.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
+          <t>鼎胜新材：融资净买入151.18万元，融资余额1.83亿元（11-25）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-24 07:24</t>
+          <t>11-26 07:24</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,603876,1250414755.html</t>
+          <t>/news,603876,1251429626.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为14.3亿元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-23 07:23</t>
+          <t>11-25 17:25</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,603876,1249870918.html</t>
+          <t>/news,603876,1251299533.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
+          <t>鼎胜新材：公司生产的铝箔可以应用于固态电池</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 07:24</t>
+          <t>11-25 14:10</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,603876,1249343613.html</t>
+          <t>/news,603876,1251213930.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>538</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
+          <t>鼎胜新材：依托公司现有国内和海外生产基地 未来将逐步提高电池铝箔出口占比</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-20 15:03</t>
+          <t>11-25 13:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,603876,1248767853.html</t>
+          <t>/news,603876,1251199137.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
+          <t>鼎胜新材：融资净买入343.54万元，融资余额1.81亿元（11-24）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-19 07:24</t>
+          <t>11-25 07:23</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,603876,1248634890.html</t>
+          <t>/news,603876,1250937621.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
+          <t>鼎胜新材：公司电池箔产品加工费稳定 同时随着公司新产品的推出 价格有所增长</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-18 07:28</t>
+          <t>11-24 17:08</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,603876,1248149399.html</t>
+          <t>/news,603876,1250765546.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
+          <t>鼎胜新材：连续4日融资净偿还累计1166.74万元（11-23）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-17 07:23</t>
+          <t>11-24 07:24</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,603876,1247663341.html</t>
+          <t>/news,603876,1250414755.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
+          <t>鼎胜新材：连续3日融资净偿还累计469.12万元（11-22）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-16 07:44</t>
+          <t>11-23 07:23</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,603876,1247174397.html</t>
+          <t>/news,603876,1249870918.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
+          <t>鼎胜新材：融资净偿还326.96万元，融资余额1.85亿元（11-21）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-15 09:15</t>
+          <t>11-22 07:24</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,603876,1246705306.html</t>
+          <t>/news,603876,1249343613.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
+          <t>鼎胜新材本周融资净买入3198.36万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-15 09:07</t>
+          <t>11-20 15:03</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,603876,1246702082.html</t>
+          <t>/news,603876,1248767853.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
+          <t>鼎胜新材：融资净偿还114.4万元，融资余额1.89亿元（11-18）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-15 07:23</t>
+          <t>11-19 07:24</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,603876,1246686031.html</t>
+          <t>/news,603876,1248634890.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
+          <t>鼎胜新材：融资净买入552.67万元，融资余额1.9亿元（11-17）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-14 17:40</t>
+          <t>11-18 07:28</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,603876,1246567927.html</t>
+          <t>/news,603876,1248149399.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,39 +1811,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
+          <t>鼎胜新材：融资净偿还162.31万元，融资余额1.84亿元（11-16）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-13 15:04</t>
+          <t>11-17 07:23</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,603876,1246098426.html</t>
+          <t>/news,603876,1247663341.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
+          <t>鼎胜新材：连续3日融资净买入累计6264.24万元（11-15）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-13 10:11</t>
+          <t>11-16 07:44</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,603876,1246081930.html</t>
+          <t>/news,603876,1247174397.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
+          <t>国信证券给予鼎胜新材买入评级，全球电池铝箔龙头，低成本叠加高良率构筑业绩支撑</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-12 07:24</t>
+          <t>11-15 09:15</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,603876,1245983370.html</t>
+          <t>/news,603876,1246705306.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,39 +1907,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
+          <t>国信证券首次给予鼎胜新材买入评级 目标价63.75~70.05元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-11 07:23</t>
+          <t>11-15 09:07</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,603876,1245407480.html</t>
+          <t>/news,603876,1246702082.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
+          <t>鼎胜新材：融资净买入1924.25万元，融资余额1.76亿元（11-14）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-10 11:47</t>
+          <t>11-15 07:23</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,603876,1245084766.html</t>
+          <t>/news,603876,1246686031.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1516</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
+          <t>鼎胜新材：公司及子公司累计实际发生的对外担保余额约为15.08亿元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-10 09:36</t>
+          <t>11-14 17:40</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,603876,1244961584.html</t>
+          <t>/news,603876,1246567927.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
+          <t>鼎胜新材本周融资净买入9371.14万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-10 07:33</t>
+          <t>11-13 15:04</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,603876,1244887914.html</t>
+          <t>/news,603876,1246098426.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
+          <t>西南证券给予鼎胜新材买入评级，电池铝箔高景气，龙头企业优势凸显</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-09 17:35</t>
+          <t>11-13 10:11</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,603876,1244782755.html</t>
+          <t>/news,603876,1246081930.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
+          <t>鼎胜新材：融资净买入3341.84万元，融资余额1.57亿元（11-11）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-09 07:22</t>
+          <t>11-12 07:24</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,603876,1244423354.html</t>
+          <t>/news,603876,1245983370.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
+          <t>鼎胜新材：融资净偿还572.22万元，融资余额1.23亿元（11-10）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,61 +2109,61 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-08 07:34</t>
+          <t>11-11 07:23</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,603876,1243971846.html</t>
+          <t>/news,603876,1245407480.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>776</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
+          <t>鼎胜新材：随着新产品的推出和产能持续提升 未来公司与高端客户的合作有望进一步加强</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-07 17:20</t>
+          <t>11-10 11:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,603876,1243846134.html</t>
+          <t>/news,603876,1245084766.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3130</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
+          <t>鼎胜新材：目前公司电池铝箔主要应用于锂离子电池正极集流体</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-07 17:09</t>
+          <t>11-10 09:36</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,603876,1243843742.html</t>
+          <t>/news,603876,1244961584.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
+          <t>鼎胜新材：融资净买入988.48万元，融资余额1.29亿元（11-09）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-07 17:05</t>
+          <t>11-10 07:33</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,603876,1243842851.html</t>
+          <t>/news,603876,1244887914.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
+          <t>鼎胜新材：为全资子公司五星铝业提供2450万元担保</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-07 16:12</t>
+          <t>11-09 17:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,603876,1243831108.html</t>
+          <t>/news,603876,1244782755.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
+          <t>鼎胜新材：融资净偿还216.59万元，融资余额1.19亿元（11-08）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-07 15:59</t>
+          <t>11-09 07:22</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,603876,1243827490.html</t>
+          <t>/news,603876,1244423354.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
+          <t>鼎胜新材：融资余额环比增加92.81%，增幅两市第八（11-07）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-07 10:58</t>
+          <t>11-08 07:34</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,603876,1243659169.html</t>
+          <t>/news,603876,1243971846.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
+          <t>鼎胜新材收盘大跌7.18% 机构资金现分歧</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-07 17:20</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,603876,1243408934.html</t>
+          <t>/news,603876,1243846134.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>3135</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
+          <t>鼎胜新材(603876)龙虎榜数据(11-07)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-05 07:35</t>
+          <t>11-07 17:09</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,603876,1243316639.html</t>
+          <t>/news,603876,1243843742.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
+          <t>多主力现身龙虎榜，鼎胜新材下跌7.18%（11-07）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-07 17:05</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,603876,1242815812.html</t>
+          <t>/news,603876,1243842851.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
+          <t>太平洋给予鼎胜新材买入评级，电池铝箔全球龙头，受益钠电增速加速</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-04 07:20</t>
+          <t>11-07 16:12</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,603876,1242812366.html</t>
+          <t>/news,603876,1243831108.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>鼎胜新材股东拟合计减持不超2%股份</t>
+          <t>太平洋首次给予鼎胜新材买入评级 预计2022年净利润同比增长183.22%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-03 21:12</t>
+          <t>11-07 15:59</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,603876,1242754432.html</t>
+          <t>/news,603876,1243827490.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>995</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
+          <t>中泰证券给予鼎胜新材买入评级：电池铝箔龙头Q3利润高增 业绩持续兑现</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-03 17:31</t>
+          <t>11-07 10:58</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,603876,1242687966.html</t>
+          <t>/news,603876,1243659169.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,39 +2515,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
+          <t>鼎胜新材本周融资净买入1472.09万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-03 17:29</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,603876,1242685796.html</t>
+          <t>/news,603876,1243408934.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
+          <t>鼎胜新材：融资净偿还925.97万元，融资余额6281.25万元（11-04）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-03 17:11</t>
+          <t>11-05 07:35</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,603876,1242680870.html</t>
+          <t>/news,603876,1243316639.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
+          <t>鼎胜新材：连续4日融资净买入累计2398.06万元（11-03）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-03 07:35</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,603876,1242322540.html</t>
+          <t>/news,603876,1242815812.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>952</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
+          <t>鼎胜新材：两名股东拟合计减持不超980.92万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,61 +2621,61 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-02 09:45</t>
+          <t>11-04 07:20</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,603876,1241856554.html</t>
+          <t>/news,603876,1242812366.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
+          <t>鼎胜新材股东拟合计减持不超2%股份</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-02 09:30</t>
+          <t>11-03 21:12</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,603876,1241830134.html</t>
+          <t>/news,603876,1242754432.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
+          <t>鼎胜新材：股东普润平方及其一致行动人拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-02 07:23</t>
+          <t>11-03 17:31</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,603876,1241797186.html</t>
+          <t>/news,603876,1242687966.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
+          <t>鼎胜新材：两名股东拟合计减持不超2%公司股份</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-01 19:05</t>
+          <t>11-03 17:29</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,603876,1241683264.html</t>
+          <t>/news,603876,1242685796.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
+          <t>注意！鼎胜新材：普润平方及普润平方壹号计划减持不超过约981万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-01 09:45</t>
+          <t>11-03 17:11</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,603876,1241361377.html</t>
+          <t>/news,603876,1242680870.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
+          <t>鼎胜新材：连续3日融资净买入累计1735.13万元（11-02）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-01 09:43</t>
+          <t>11-03 07:35</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,603876,1241350317.html</t>
+          <t>/news,603876,1242322540.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
+          <t>浙商证券给予鼎胜新材买入评级，2022年三季度报业绩点评：Q3业绩超预期，产能释放承接下游需求</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-01 09:41</t>
+          <t>11-02 09:45</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,603876,1241344226.html</t>
+          <t>/news,603876,1241856554.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,182 +2835,182 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鼎胜新材：融资净买入672.24万元，融资余额5481.4万元（10-31）</t>
+          <t>浙商证券维持鼎胜新材买入评级 预计2022年净利润同比增长239.73%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-01 07:36</t>
+          <t>11-02 09:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,603876,1241294386.html</t>
+          <t>/news,603876,1241830134.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>招商证券维持鼎胜新材强烈推荐评级 预计2022年净利润同比增长190.9%</t>
+          <t>鼎胜新材：融资净买入593.94万元，融资余额6075.34万元（11-01）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-31 19:15</t>
+          <t>11-02 07:23</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,603876,1241197709.html</t>
+          <t>/news,603876,1241797186.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>国金证券给予鼎胜新材买入评级：电池箔出货高增，业绩如期兑现</t>
+          <t>兴业证券维持鼎胜新材审慎增持评级 预计2022年净利润同比增长231.59%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-31 14:42</t>
+          <t>11-01 19:05</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,603876,1241106309.html</t>
+          <t>/news,603876,1241683264.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>国金证券维持鼎胜新材买入评级 预计2022年净利润同比增长236.24%</t>
+          <t>财通证券给予鼎胜新材增持评级 产线转产迎行业景气 业绩持续超预期</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-31 14:32</t>
+          <t>11-01 09:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,603876,1241093057.html</t>
+          <t>/news,603876,1241361377.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鼎胜新材本周融资净买入4809.16万元，居有色金属板块第一</t>
+          <t>鼎胜新材：公司前三季度产品出口较去年稳步增长</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>鼎胜新材资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-30 15:03</t>
+          <t>11-01 09:43</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,603876,1240711365.html</t>
+          <t>/news,603876,1241350317.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鼎胜新材：前三季度净利润同比增长293.27% 加码产能迎接行业景气上行</t>
+          <t>财通证券维持鼎胜新材增持评级 预计2022年净利润同比增长250.54%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>鼎胜新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-29 12:04</t>
+          <t>11-01 09:41</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,603876,1240618790.html</t>
+          <t>/news,603876,1241344226.html</t>
         </is>
       </c>
     </row>
